--- a/data/data_dump.xlsx
+++ b/data/data_dump.xlsx
@@ -5,23 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\TA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\finalproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFBB411-311C-4222-9499-84952A110385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FF1013-7611-4B8A-A14F-4FEA44045E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{716B8A15-0A8A-405C-827E-E6324A515ECE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{716B8A15-0A8A-405C-827E-E6324A515ECE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bhs Indonesia SMA" sheetId="1" r:id="rId1"/>
-    <sheet name="Bhs Indonesia SMP" sheetId="10" r:id="rId2"/>
-    <sheet name="Bhs Indonesia SD" sheetId="9" r:id="rId3"/>
-    <sheet name="Biologi SMA" sheetId="2" r:id="rId4"/>
-    <sheet name="Kimia SMA" sheetId="3" r:id="rId5"/>
-    <sheet name="Fisika SMA" sheetId="4" r:id="rId6"/>
-    <sheet name="Biologi SMP" sheetId="5" r:id="rId7"/>
-    <sheet name="Fisika SMP" sheetId="6" r:id="rId8"/>
-    <sheet name="IPA SD" sheetId="8" r:id="rId9"/>
+    <sheet name="Matematika SMA" sheetId="11" r:id="rId1"/>
+    <sheet name="Matematika SMP" sheetId="12" r:id="rId2"/>
+    <sheet name="Matematika SD" sheetId="13" r:id="rId3"/>
+    <sheet name="Bhs Indonesia SMA" sheetId="1" r:id="rId4"/>
+    <sheet name="Bhs Indonesia SMP" sheetId="10" r:id="rId5"/>
+    <sheet name="Bhs Indonesia SD" sheetId="9" r:id="rId6"/>
+    <sheet name="Biologi SMA" sheetId="2" r:id="rId7"/>
+    <sheet name="Kimia SMA" sheetId="3" r:id="rId8"/>
+    <sheet name="Fisika SMA" sheetId="4" r:id="rId9"/>
+    <sheet name="Biologi SMP" sheetId="5" r:id="rId10"/>
+    <sheet name="Fisika SMP" sheetId="6" r:id="rId11"/>
+    <sheet name="IPA SD" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="1281">
   <si>
     <t>text</t>
   </si>
@@ -5375,6 +5378,385 @@
   </si>
   <si>
     <t>Manakah yang bukan ciri “ ciri Fungsi Bahasa Baku adalah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premis 1Â Â Â Â : Jika ada gula, maka ada semut.  Premis 2Â Â Â Â : Di meja ada gula.  KesimpulanÂ Â Â Â : Di meja ada semut.  </t>
+  </si>
+  <si>
+    <t>Penarikan kesimpulan diatas berdasarkan prinsip logikaâ€¦</t>
+  </si>
+  <si>
+    <t>Diketahui f(x) = 2x2 â€“ 3x + 5. Nilai dari f(â”€1) = ....</t>
+  </si>
+  <si>
+    <t>Fungsi dari grafik berikut adalah ....</t>
+  </si>
+  <si>
+    <t>Fungsi kuadrat dari grafik pada gambar berikut adalah ....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhatikan grafik fungsi kuadrat berikut !  </t>
+  </si>
+  <si>
+    <t>Persamaan grafiknya adalah ....</t>
+  </si>
+  <si>
+    <t>Negasi dari "Jika nilai matematika saya lebih dari 77, maka saya lulus ujian." adalahâ€¦</t>
+  </si>
+  <si>
+    <t>Balok ABCD.EFGH mempunyai panjang 4 cm, lebar 2 cm, dan tinggi 3 cm. Jarak antara BC dan EH adalahâ€¦ cm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diketahui premis berikut.  Premis 1Â Â Â Â Â Â Â Â Â  : Jika prestasi siswa bagus, maka siswa diberi hadiah  Premis 2Â Â Â Â Â Â Â Â Â  : Prestasi siswa bagus  KonklusiÂ Â Â Â Â Â Â Â  : ................................................................................  </t>
+  </si>
+  <si>
+    <t>Konklusi yang tepat untuk premis-premis diatas adalahâ€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhatikan gambar berikut.   							  Â   Â   Â   Â  </t>
+  </si>
+  <si>
+    <t>Jika panjang rusuk adalah 8 cm, maka panjang G ke D adalahâ€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhatikan gambar berikut.    							  Â   Â   Â   Â   Â   Â  </t>
+  </si>
+  <si>
+    <t>Jika panjang rusuk adalah 6 cm, maka panjang G ke garis BD adalahâ€¦</t>
+  </si>
+  <si>
+    <t>Dalam suatu ulangan terdapat 30 orang mendapat nilai 5,  40 orang mendapat nilai 6,  20 orang mendapat nilai 7, dan 10 orang mendapat nilai 8. Rataan nilai ulangan dari data tersebut adalah â€¦.</t>
+  </si>
+  <si>
+    <t>Hasil tes pelajaran matematika 15 orang adalah sebagai berikut: 30, 45, 55, 60, 60, 65, 85, 75, 75, 55, 60, 35, 30, 50. Rentang data atau jangkauan (range) data tersebut adalah ...</t>
+  </si>
+  <si>
+    <t>Jika grafik persamaan kuadrat terbuka ke bawah dan menyinggung sumbu x di satu titik, maka nilai a dan D dari grafik tersebut adalah...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Modus Ponens
+ B. Modus Tolens
+ C. Silogisme
+ D. Kontradiksi
+ E. Tautologi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. â”€7
+ B. â”€1
+ C. 1
+ D. 10
+ E. 12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. y = 2x2 + 8x
+ B. y = 2x2 â€“ 8x
+ C. y = â€“2x2 â€“ 8x
+ D. y = â€“2x2 + 8x
+ E. y = â€“2x2 + 6x </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. y = x2 + 6x â€“ 5 
+ B. y = x2 â€“ 6x + 5
+ C. y = x2 â€“ 6x â€“ 5
+ D. y = â€“x2 + 6x + 5
+ E. y = â€“x2 + 6x â€“ 5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. f(x) = x2 â€“ 2x + 8
+ B. f(x) = x2 â€“ 2x â€“ 8
+ C. f(x) = x2 + 2x + 8
+ D. f(x) = x2 + 2x â€“ 8
+ E. f(x) = 2x2 â€“ 2x + 8  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Jika nilai matematika saya lebih dari 77, maka saya tidak lulus ujian.
+ B. Jika nilai matematika saya kurang dari 77, maka saya lulus ujian.
+ C. Jika saya lulus ujian, maka nilai matematika saya lebih dari 77.
+ D. Nilai matematika saya lebih dari 77 dan saya tidak lulus ujian.
+ E. Nilai matematika saya kurang dari 77 atau saya lulus ujian. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 
+								 B. 
+								 C. 5
+ D. 
+								 E. 6  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Prestasi siswa bagus.
+ B. Siswa diberi hadiah.
+ C. Prestasi siswa tidak bagus.
+ D. Siswa tidak diberi hadiah.
+ E. Jika prestasi siswa bagus, maka siswa diberi hadiah. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 8 cm
+ B. 16 cm
+ C. 
+								 D. 64 cm
+ E.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 
+								 B. 18 cm
+ C. 
+								 D. 
+								 E. 9 cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 5,1
+ B. 5,5
+ C. 6,1
+ D. 6,6
+ E. 7,1
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 15
+ B. 25
+ C. 35
+ D. 45
+ E. 55
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. a &amp;gt; 0, D &amp;gt; 0
+ B. a &amp;gt; 0, D = 0
+ C. a &amp;lt; 0, D &amp;lt; 0
+ D. a &amp;gt; 0, D &amp;lt; 0
+ E. a &amp;lt; 0, D = 0
+ </t>
+  </si>
+  <si>
+    <t>Diketahui bidang datar persegi panjang ABCD. Jika AB=8 cm dan BC=6 cm, maka panjang AC adalahâ€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 10 cm
+ B. 14 cm
+ C. 48 cm
+ D. 28 cm
+ E. 12 cm </t>
+  </si>
+  <si>
+    <t>Dalam segitiga ABC diketahui b = 8 cm, c = 5 cm, dan sudut A = 60O, maka panjang sisi a = .......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 
+cm
+ B. 7 cm
+ C. 49 cm
+ D. 89 cm
+ E. 
+cm
+ </t>
+  </si>
+  <si>
+    <t>Dari segitiga ABC diketahui panjang sisi b = 6 cm, c = 8 cm dan besar sudut A 60O, maka luas daerah segitiga ABC tersebut adalah ...... cm2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 48 
+ B.  C.  D. 24
+ E.  </t>
+  </si>
+  <si>
+    <t>Diketahui segitiga ABC dengan panjang AC = BC = 6, AB = , maka luas segitiga ABC tersebut adalah ....... satuan luas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  B.  C.  D.  E.  </t>
+  </si>
+  <si>
+    <t>Diketahui sin A =  , cos B = , A sudut tumpul dan B sudut lancip, maka nilai cos (A â€“ B) adalah .......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 
+Â  B. 
+Â  C. 
+Â  D. 
+Â  E. 
+ </t>
+  </si>
+  <si>
+    <t>Diketahui tan A = (A sudut lancip). Maka nilai sin 2A = .......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 
+Â  B. 
+Â  C. 
+Â  D. 
+Â  E. 1
+ </t>
+  </si>
+  <si>
+    <t>Diketahui tan a = dan tan b =, a dan b keduanya lancip, maka nilai sin( a + b ) adalah .......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 
+Â  B. 
+Â  C. 
+Â  D. 
+Â  E.  </t>
+  </si>
+  <si>
+    <t>Diketahui tg x = 2,4 dengan x dalam selang 180O â‰¤ x â‰¤ 270O, maka nilai cos x adalah .....</t>
+  </si>
+  <si>
+    <t>Ditentukan sin A = ,maka nilai cos 2A adalah ........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 
+Â  B. 
+Â  C. 
+Â  D. 
+Â  E. 
+ </t>
+  </si>
+  <si>
+    <t>Himpunan Penyelesaian dari persamaan 2sin x - âˆš3 = 0 ; 0 â‰¤ x â‰¤ 2Ï€ adalah ..........</t>
+  </si>
+  <si>
+    <t>Koordinat Cartesius dari titik P (8 , 60O) adalah ........</t>
+  </si>
+  <si>
+    <t>Kultur jaringan pada suatu uji laboratorium menunjukkan bahwa satu bakteri dapat membelah diri dalamÂ waktu 2 jam. Diketahui bahwa pada awal kultur jaringan tersebut terdapat 1.000 bakteri. Banyak bakteri setelah n jam adalah ....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. MnÂ Â Â Â = 1 x 2n
+ B. MnÂ Â Â Â = 10 x 2n 
+ C. MnÂ Â Â Â = 100 x 2n
+ D. MnÂ Â Â Â = 1000 x 2n
+ E. MnÂ Â Â Â = 10000 x 2n
+ </t>
+  </si>
+  <si>
+    <t>Nilai cos 75O + cos 15O adalah .......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 0
+Â  B. 
+Â  C. 
+Â  D. 
+Â  E.  </t>
+  </si>
+  <si>
+    <t>Nilai dari cos 1200O adalah ....</t>
+  </si>
+  <si>
+    <t>Nilai dari sin 105 â€“ sin 15O adalah ......</t>
+  </si>
+  <si>
+    <t>Pada pemeriksaan kedua dokter mendiagnosa bahwa masih ada 800.000 bakteri yang menginfeksi telinga seorang bayi. Untuk mempercepat proses penyembuhan, dokter meningkatkan dosis penisilin yang dapat membunuh 10% bakteri setiap 6 jam. Banyak bakteri setelah 24 jam dan setelah 72 jam adalah .....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 225.443 bakteri 
+ B. 225.433 bakteri 
+ C. 255.443 bakteri 
+ D. 255.433 bakteri 
+ E. 525.443 bakteri  </t>
+  </si>
+  <si>
+    <t>Pada segitiga ABC diketahui panjang sisi AB = 10 cm, sisi AC = 12 cm, dan sin B = maka nilai       cos C adalah .......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 
+Â  B. 
+Â  C. 
+Â 
+ D. 
+Â  E. 1
+ </t>
+  </si>
+  <si>
+    <t>Rudi menabung di bank sebesar Rp 1.000.000 dengan bunga tunggal 10% per tahun. Maka besarnya saldo bunga selama 3 tahun adalah ......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Rp. 1.200.000,00
+ B. Rp. 1.300.000,00
+ C. Rp. 1.400.000,00
+ D. Rp. 1.500.000,00
+ E. Rp. 1.600.000,00 </t>
+  </si>
+  <si>
+    <t>Sebuah pinjaman sebesar Rp20.000.000,00 akan dilunasi secara anuitas tahunan sebesar Rp 4.000.000,00. Jika suku bunga 5% per tahun, maka besar sisa hutang tahun ketiga adalah .....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 10.442.500,00
+ B. 10.542.500,00
+ C. 10.552.500,00
+ D. 10.645.500,00
+ E. 10.655.500,00 </t>
+  </si>
+  <si>
+    <t>Seorang Siswa melihat puncak sebuah pohon dengan sudut elevasi 60. Jika jarak siswa dengan pohon tersebut 50 meter, maka tinggi pohon adalah ......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  B. 50 meter
+ C.  D. 25 meter
+ E.  </t>
+  </si>
+  <si>
+    <t>Seorang petani akan menggarap sebidang tanah yang olah-olah berbentuk segitiga sembarang, panjang ketiga sisinya masing-masing 10 m,13 m, dan 17 m, maka luas tanah yang akan digarap petani tersebut adalah ......... m2</t>
+  </si>
+  <si>
+    <t>Suatu Pinjaman akan dilunasi dengan sistem anuitas bulanan. Jika besar angsuran Rp.85.000, dan bunganya adalah Rp.315.000,00. jumlah anuitas pinjaman tersebut adalah .......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 200
+ B. 300
+ C. 400
+ D. 500
+ E. 600 </t>
+  </si>
+  <si>
+    <t>Suatu modal sebesar Rp 1.000.000 diinvestasikan selama 3 tahun dengan bunga sebesar 8%. Besar investasi jika menggunakan bunga majemuk setiap 3 bulan adalah ........</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Rp. 2,158.171,12
+ B. Rp. 2,185.171,12
+ C. Rp. 2,515.170,12
+ D. Rp. 2,518.171,12
+ E. Rp. 2,518.170,12 </t>
+  </si>
+  <si>
+    <t>Jika f(x) = 22x â€“ 1 â€“ 1, maka f -1(x) = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 
+									2log (2x â€“ 2)Â Â Â Â Â Â Â Â 
+ B. 
+									2log (2x + 2)Â Â Â Â Â Â Â Â 
+ C.  [ 2log (x + 1) + 1 ]
+ D. 
+									2log (x + 1)
+ E. 
+									2log (2x + 2)Â Â Â Â 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhatikan grafik fungsi di bawah ini.   							 </t>
+  </si>
+  <si>
+    <t>Nilai koefisien a dan Diskriminan dari grafik di atas adalahâ€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. A &amp;gt; 0 dan D &amp;gt; 0
+ B. A &amp;gt; 0 dan D = 0
+ C. A &amp;lt; 0 dan D = 0
+ D. A &amp;gt; 0 dan D &amp;lt; 0
+ E. A &amp;lt; 0 dan D &amp;gt; 0
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diketahui ABCD. EFGH adalah bangun ruang kubus.   </t>
+  </si>
+  <si>
+    <t>Nyatakan  dalam bentuk jumlah dari dua buah ruas garis berarah. Ada berapa cara untuk menyatakan  sebagai jumlah dari dua buah ruas garis berarah?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 2
+ B. 4
+ C. 6
+ D. 8
+ E. 10 </t>
   </si>
 </sst>
 </file>
@@ -5401,7 +5783,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5414,11 +5796,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -5427,7 +5848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5472,6 +5893,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5785,23 +6211,2084 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0721E6D-7C05-4701-825D-DC8B003C20EA}">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="17" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="17" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="16" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="16" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="17" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="16" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="17" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="16" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="17" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="16" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="17" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FDDDBA-7BE6-43BC-A6BD-AAD739BA0F06}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>282</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>315</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B29" t="s">
+        <v>321</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" t="s">
+        <v>324</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" t="s">
+        <v>327</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" t="s">
+        <v>332</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721B770-B59E-4DB4-A9B4-84662EBA6B9F}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D25241-FE91-45A2-8BFD-0891BEA80A9E}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C3" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" t="s">
+        <v>423</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>431</v>
+      </c>
+      <c r="B11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B14" t="s">
+        <v>438</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" t="s">
+        <v>445</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>447</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>449</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" t="s">
+        <v>453</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>544</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>546</v>
+      </c>
+      <c r="B23" t="s">
+        <v>547</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B24" t="s">
+        <v>550</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>552</v>
+      </c>
+      <c r="B25" t="s">
+        <v>553</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>555</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B27" t="s">
+        <v>558</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB29A854-72C8-4A98-85EF-AFE15513E655}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753DF962-684E-41AD-A09C-76FF210479FD}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972FC825-47B8-4AF9-81CB-D159EC7E9EEB}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection sqref="A1:F91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="6"/>
-    <col min="6" max="6" width="18.28515625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="6"/>
+    <col min="6" max="6" width="18.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5821,7 +8308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>571</v>
       </c>
@@ -5841,7 +8328,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>574</v>
       </c>
@@ -5861,7 +8348,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>577</v>
       </c>
@@ -5881,7 +8368,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>580</v>
       </c>
@@ -5901,7 +8388,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>583</v>
       </c>
@@ -5921,7 +8408,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>586</v>
       </c>
@@ -5941,7 +8428,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>589</v>
       </c>
@@ -5961,7 +8448,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>592</v>
       </c>
@@ -5981,7 +8468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>595</v>
       </c>
@@ -6001,7 +8488,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>598</v>
       </c>
@@ -6018,7 +8505,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>599</v>
       </c>
@@ -6038,7 +8525,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>602</v>
       </c>
@@ -6058,7 +8545,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>605</v>
       </c>
@@ -6078,7 +8565,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>608</v>
       </c>
@@ -6098,7 +8585,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>611</v>
       </c>
@@ -6118,7 +8605,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>614</v>
       </c>
@@ -6138,7 +8625,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>617</v>
       </c>
@@ -6158,7 +8645,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>620</v>
       </c>
@@ -6178,7 +8665,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>623</v>
       </c>
@@ -6198,7 +8685,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>625</v>
       </c>
@@ -6218,7 +8705,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>628</v>
       </c>
@@ -6235,7 +8722,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>630</v>
       </c>
@@ -6252,7 +8739,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>632</v>
       </c>
@@ -6272,7 +8759,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>634</v>
       </c>
@@ -6292,7 +8779,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>637</v>
       </c>
@@ -6312,7 +8799,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>640</v>
       </c>
@@ -6329,7 +8816,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>644</v>
       </c>
@@ -6349,7 +8836,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>643</v>
       </c>
@@ -6369,7 +8856,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>646</v>
       </c>
@@ -6389,7 +8876,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>649</v>
       </c>
@@ -6409,7 +8896,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>652</v>
       </c>
@@ -6429,7 +8916,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>655</v>
       </c>
@@ -6449,7 +8936,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>658</v>
       </c>
@@ -6469,7 +8956,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>661</v>
       </c>
@@ -6486,7 +8973,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>663</v>
       </c>
@@ -6506,7 +8993,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>666</v>
       </c>
@@ -6526,7 +9013,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>669</v>
       </c>
@@ -6546,7 +9033,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>672</v>
       </c>
@@ -6563,7 +9050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>674</v>
       </c>
@@ -6583,7 +9070,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>677</v>
       </c>
@@ -6603,7 +9090,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>681</v>
       </c>
@@ -6623,7 +9110,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>681</v>
       </c>
@@ -6643,7 +9130,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>915</v>
       </c>
@@ -6663,7 +9150,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>1148</v>
       </c>
@@ -6683,7 +9170,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>681</v>
       </c>
@@ -6700,7 +9187,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>681</v>
       </c>
@@ -6720,7 +9207,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>681</v>
       </c>
@@ -6740,7 +9227,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>922</v>
       </c>
@@ -6760,7 +9247,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>681</v>
       </c>
@@ -6780,7 +9267,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>925</v>
       </c>
@@ -6800,7 +9287,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>681</v>
       </c>
@@ -6817,7 +9304,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>681</v>
       </c>
@@ -6837,7 +9324,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>681</v>
       </c>
@@ -6857,7 +9344,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>681</v>
       </c>
@@ -6877,7 +9364,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>1156</v>
       </c>
@@ -6897,7 +9384,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>681</v>
       </c>
@@ -6917,7 +9404,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>681</v>
       </c>
@@ -6937,7 +9424,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>681</v>
       </c>
@@ -6957,7 +9444,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>931</v>
       </c>
@@ -6977,7 +9464,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>1161</v>
       </c>
@@ -6997,7 +9484,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>681</v>
       </c>
@@ -7017,7 +9504,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>681</v>
       </c>
@@ -7037,7 +9524,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>936</v>
       </c>
@@ -7057,7 +9544,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>938</v>
       </c>
@@ -7077,7 +9564,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>939</v>
       </c>
@@ -7097,7 +9584,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>681</v>
       </c>
@@ -7117,7 +9604,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>942</v>
       </c>
@@ -7137,7 +9624,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>944</v>
       </c>
@@ -7157,7 +9644,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>681</v>
       </c>
@@ -7177,7 +9664,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>681</v>
       </c>
@@ -7197,7 +9684,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>681</v>
       </c>
@@ -7217,7 +9704,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>1182</v>
       </c>
@@ -7237,7 +9724,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>681</v>
       </c>
@@ -7257,7 +9744,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>681</v>
       </c>
@@ -7277,7 +9764,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>681</v>
       </c>
@@ -7297,7 +9784,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>681</v>
       </c>
@@ -7317,7 +9804,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>681</v>
       </c>
@@ -7337,7 +9824,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>681</v>
       </c>
@@ -7357,7 +9844,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>681</v>
       </c>
@@ -7374,7 +9861,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>681</v>
       </c>
@@ -7394,7 +9881,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>681</v>
       </c>
@@ -7414,7 +9901,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>681</v>
       </c>
@@ -7434,7 +9921,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>681</v>
       </c>
@@ -7454,7 +9941,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>681</v>
       </c>
@@ -7474,7 +9961,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>962</v>
       </c>
@@ -7494,7 +9981,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>964</v>
       </c>
@@ -7514,7 +10001,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>681</v>
       </c>
@@ -7534,7 +10021,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>966</v>
       </c>
@@ -7554,7 +10041,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>968</v>
       </c>
@@ -7574,7 +10061,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>681</v>
       </c>
@@ -7600,7 +10087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F237ED9-F30A-4008-A614-4A15D5EDE865}">
   <dimension ref="A1:F73"/>
   <sheetViews>
@@ -7608,15 +10095,15 @@
       <selection activeCell="A2" sqref="A2:F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="6"/>
-    <col min="6" max="6" width="18.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="6"/>
+    <col min="6" max="6" width="18.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7636,7 +10123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>681</v>
       </c>
@@ -7656,7 +10143,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>681</v>
       </c>
@@ -7676,7 +10163,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>681</v>
       </c>
@@ -7696,7 +10183,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>681</v>
       </c>
@@ -7716,7 +10203,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>681</v>
       </c>
@@ -7736,7 +10223,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>681</v>
       </c>
@@ -7756,7 +10243,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>681</v>
       </c>
@@ -7776,7 +10263,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>681</v>
       </c>
@@ -7796,7 +10283,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>681</v>
       </c>
@@ -7816,7 +10303,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>681</v>
       </c>
@@ -7836,7 +10323,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>681</v>
       </c>
@@ -7856,7 +10343,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>681</v>
       </c>
@@ -7876,7 +10363,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>681</v>
       </c>
@@ -7896,7 +10383,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>681</v>
       </c>
@@ -7916,7 +10403,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>681</v>
       </c>
@@ -7936,7 +10423,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>999</v>
       </c>
@@ -7956,7 +10443,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1002</v>
       </c>
@@ -7976,7 +10463,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>681</v>
       </c>
@@ -7996,7 +10483,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>681</v>
       </c>
@@ -8016,7 +10503,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>1009</v>
       </c>
@@ -8036,7 +10523,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>1012</v>
       </c>
@@ -8056,7 +10543,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>681</v>
       </c>
@@ -8076,7 +10563,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>1017</v>
       </c>
@@ -8096,7 +10583,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>1020</v>
       </c>
@@ -8116,7 +10603,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>1023</v>
       </c>
@@ -8136,7 +10623,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>1026</v>
       </c>
@@ -8156,7 +10643,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>1026</v>
       </c>
@@ -8176,7 +10663,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>1031</v>
       </c>
@@ -8196,7 +10683,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1034</v>
       </c>
@@ -8216,7 +10703,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>1037</v>
       </c>
@@ -8236,7 +10723,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>1037</v>
       </c>
@@ -8256,7 +10743,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>1042</v>
       </c>
@@ -8276,7 +10763,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>1042</v>
       </c>
@@ -8296,7 +10783,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>1042</v>
       </c>
@@ -8316,7 +10803,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>1049</v>
       </c>
@@ -8336,7 +10823,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>1049</v>
       </c>
@@ -8356,7 +10843,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>1054</v>
       </c>
@@ -8376,7 +10863,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1054</v>
       </c>
@@ -8396,7 +10883,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>1059</v>
       </c>
@@ -8416,7 +10903,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>1062</v>
       </c>
@@ -8436,7 +10923,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>1062</v>
       </c>
@@ -8456,7 +10943,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>1065</v>
       </c>
@@ -8476,7 +10963,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>1065</v>
       </c>
@@ -8496,7 +10983,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>681</v>
       </c>
@@ -8516,7 +11003,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>681</v>
       </c>
@@ -8536,7 +11023,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>681</v>
       </c>
@@ -8556,7 +11043,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>681</v>
       </c>
@@ -8576,7 +11063,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>1074</v>
       </c>
@@ -8596,7 +11083,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>1077</v>
       </c>
@@ -8616,7 +11103,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>1080</v>
       </c>
@@ -8636,7 +11123,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>1088</v>
       </c>
@@ -8656,7 +11143,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>681</v>
       </c>
@@ -8676,7 +11163,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>681</v>
       </c>
@@ -8696,7 +11183,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>1095</v>
       </c>
@@ -8716,7 +11203,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>1098</v>
       </c>
@@ -8736,7 +11223,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>1101</v>
       </c>
@@ -8756,7 +11243,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>681</v>
       </c>
@@ -8776,7 +11263,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>1104</v>
       </c>
@@ -8796,7 +11283,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>681</v>
       </c>
@@ -8816,7 +11303,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>1109</v>
       </c>
@@ -8836,7 +11323,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>1112</v>
       </c>
@@ -8856,7 +11343,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>681</v>
       </c>
@@ -8876,7 +11363,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>1117</v>
       </c>
@@ -8896,7 +11383,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>1120</v>
       </c>
@@ -8916,7 +11403,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>1123</v>
       </c>
@@ -8936,7 +11423,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>1126</v>
       </c>
@@ -8956,7 +11443,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>1129</v>
       </c>
@@ -8976,7 +11463,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>1132</v>
       </c>
@@ -8996,7 +11483,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>1135</v>
       </c>
@@ -9016,7 +11503,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>1138</v>
       </c>
@@ -9036,7 +11523,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>1141</v>
       </c>
@@ -9056,7 +11543,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>1144</v>
       </c>
@@ -9081,7 +11568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECFF656-3193-4EE7-82CA-B504216A6637}">
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -9089,16 +11576,16 @@
       <selection activeCell="A2" sqref="A2:F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="6"/>
-    <col min="6" max="6" width="18.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="6"/>
+    <col min="6" max="6" width="18.44140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9118,7 +11605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>680</v>
       </c>
@@ -9138,7 +11625,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>681</v>
       </c>
@@ -9158,7 +11645,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>681</v>
       </c>
@@ -9178,7 +11665,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>681</v>
       </c>
@@ -9198,7 +11685,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>681</v>
       </c>
@@ -9218,7 +11705,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>681</v>
       </c>
@@ -9238,7 +11725,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>682</v>
       </c>
@@ -9258,7 +11745,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>683</v>
       </c>
@@ -9278,7 +11765,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>681</v>
       </c>
@@ -9298,7 +11785,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>681</v>
       </c>
@@ -9318,7 +11805,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>681</v>
       </c>
@@ -9335,7 +11822,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>681</v>
       </c>
@@ -9355,7 +11842,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>681</v>
       </c>
@@ -9375,7 +11862,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>681</v>
       </c>
@@ -9395,7 +11882,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>681</v>
       </c>
@@ -9415,7 +11902,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>681</v>
       </c>
@@ -9435,7 +11922,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>681</v>
       </c>
@@ -9455,7 +11942,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>681</v>
       </c>
@@ -9475,7 +11962,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>681</v>
       </c>
@@ -9495,7 +11982,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>681</v>
       </c>
@@ -9515,7 +12002,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>681</v>
       </c>
@@ -9535,7 +12022,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>681</v>
       </c>
@@ -9555,7 +12042,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>681</v>
       </c>
@@ -9575,7 +12062,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>681</v>
       </c>
@@ -9595,7 +12082,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>681</v>
       </c>
@@ -9615,7 +12102,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>681</v>
       </c>
@@ -9635,7 +12122,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>681</v>
       </c>
@@ -9655,7 +12142,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>681</v>
       </c>
@@ -9675,7 +12162,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>681</v>
       </c>
@@ -9695,7 +12182,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>681</v>
       </c>
@@ -9715,7 +12202,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>681</v>
       </c>
@@ -9735,7 +12222,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>681</v>
       </c>
@@ -9755,7 +12242,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>681</v>
       </c>
@@ -9775,7 +12262,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>681</v>
       </c>
@@ -9795,7 +12282,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>681</v>
       </c>
@@ -9815,7 +12302,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>681</v>
       </c>
@@ -9835,7 +12322,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>681</v>
       </c>
@@ -9855,7 +12342,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>681</v>
       </c>
@@ -9875,7 +12362,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>684</v>
       </c>
@@ -9895,7 +12382,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>681</v>
       </c>
@@ -9915,7 +12402,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>685</v>
       </c>
@@ -9935,7 +12422,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>686</v>
       </c>
@@ -9955,7 +12442,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>687</v>
       </c>
@@ -9975,7 +12462,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>681</v>
       </c>
@@ -9995,7 +12482,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>681</v>
       </c>
@@ -10015,7 +12502,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>681</v>
       </c>
@@ -10035,7 +12522,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>681</v>
       </c>
@@ -10055,7 +12542,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>681</v>
       </c>
@@ -10075,7 +12562,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>681</v>
       </c>
@@ -10095,7 +12582,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>681</v>
       </c>
@@ -10115,7 +12602,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>792</v>
       </c>
@@ -10135,7 +12622,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>795</v>
       </c>
@@ -10155,7 +12642,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>798</v>
       </c>
@@ -10175,7 +12662,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>801</v>
       </c>
@@ -10195,7 +12682,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>804</v>
       </c>
@@ -10215,7 +12702,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>807</v>
       </c>
@@ -10235,7 +12722,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>810</v>
       </c>
@@ -10255,7 +12742,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>813</v>
       </c>
@@ -10275,7 +12762,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>681</v>
       </c>
@@ -10295,7 +12782,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>681</v>
       </c>
@@ -10315,7 +12802,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>681</v>
       </c>
@@ -10335,7 +12822,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>822</v>
       </c>
@@ -10355,7 +12842,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>825</v>
       </c>
@@ -10375,7 +12862,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>681</v>
       </c>
@@ -10395,7 +12882,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
         <v>681</v>
       </c>
@@ -10415,7 +12902,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
         <v>681</v>
       </c>
@@ -10435,7 +12922,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>681</v>
       </c>
@@ -10455,7 +12942,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
         <v>681</v>
       </c>
@@ -10475,7 +12962,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
         <v>681</v>
       </c>
@@ -10495,7 +12982,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
         <v>681</v>
       </c>
@@ -10515,7 +13002,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>681</v>
       </c>
@@ -10535,7 +13022,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>681</v>
       </c>
@@ -10555,7 +13042,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>681</v>
       </c>
@@ -10575,7 +13062,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>681</v>
       </c>
@@ -10595,7 +13082,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>681</v>
       </c>
@@ -10615,7 +13102,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>681</v>
       </c>
@@ -10635,7 +13122,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>852</v>
       </c>
@@ -10655,7 +13142,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>681</v>
       </c>
@@ -10675,7 +13162,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>681</v>
       </c>
@@ -10695,7 +13182,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>681</v>
       </c>
@@ -10715,7 +13202,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>859</v>
       </c>
@@ -10735,7 +13222,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>862</v>
       </c>
@@ -10755,7 +13242,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>681</v>
       </c>
@@ -10775,7 +13262,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>867</v>
       </c>
@@ -10795,7 +13282,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>870</v>
       </c>
@@ -10815,7 +13302,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>681</v>
       </c>
@@ -10835,7 +13322,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>681</v>
       </c>
@@ -10855,7 +13342,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>681</v>
       </c>
@@ -10875,7 +13362,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>681</v>
       </c>
@@ -10895,7 +13382,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>681</v>
       </c>
@@ -10915,7 +13402,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>681</v>
       </c>
@@ -10935,7 +13422,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>681</v>
       </c>
@@ -10955,7 +13442,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>681</v>
       </c>
@@ -10975,7 +13462,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>681</v>
       </c>
@@ -10995,7 +13482,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>681</v>
       </c>
@@ -11015,7 +13502,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>681</v>
       </c>
@@ -11035,7 +13522,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>681</v>
       </c>
@@ -11055,7 +13542,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>681</v>
       </c>
@@ -11075,7 +13562,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>681</v>
       </c>
@@ -11100,24 +13587,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E25D538-4F4B-4C0B-8750-97F4E78136A7}">
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F46"/>
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="5" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="6"/>
-    <col min="6" max="8" width="9.140625" style="5"/>
+    <col min="1" max="1" width="20.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="6"/>
+    <col min="6" max="8" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11137,7 +13624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -11157,7 +13644,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -11177,7 +13664,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -11194,7 +13681,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -11214,7 +13701,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -11234,7 +13721,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -11254,7 +13741,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -11271,7 +13758,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
@@ -11288,7 +13775,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -11308,7 +13795,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -11328,7 +13815,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -11348,7 +13835,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -11368,7 +13855,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -11388,7 +13875,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -11408,7 +13895,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -11428,7 +13915,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
@@ -11448,7 +13935,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
@@ -11465,7 +13952,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>58</v>
       </c>
@@ -11482,7 +13969,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>59</v>
       </c>
@@ -11499,7 +13986,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
@@ -11519,7 +14006,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>65</v>
       </c>
@@ -11533,7 +14020,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>379</v>
       </c>
@@ -11550,7 +14037,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="5" t="s">
         <v>69</v>
       </c>
@@ -11564,7 +14051,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>381</v>
       </c>
@@ -11581,7 +14068,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>73</v>
       </c>
@@ -11595,7 +14082,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>383</v>
       </c>
@@ -11612,7 +14099,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>76</v>
       </c>
@@ -11626,7 +14113,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>385</v>
       </c>
@@ -11643,7 +14130,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>80</v>
       </c>
@@ -11657,7 +14144,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>387</v>
       </c>
@@ -11674,7 +14161,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="5" t="s">
         <v>83</v>
       </c>
@@ -11688,7 +14175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
         <v>85</v>
       </c>
@@ -11702,7 +14189,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="5" t="s">
         <v>87</v>
       </c>
@@ -11716,7 +14203,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>377</v>
       </c>
@@ -11733,7 +14220,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>389</v>
       </c>
@@ -11750,7 +14237,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
         <v>91</v>
       </c>
@@ -11764,7 +14251,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>391</v>
       </c>
@@ -11781,7 +14268,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>395</v>
       </c>
@@ -11798,7 +14285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>393</v>
       </c>
@@ -11815,7 +14302,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="5" t="s">
         <v>96</v>
       </c>
@@ -11829,7 +14316,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>396</v>
       </c>
@@ -11852,7 +14339,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>399</v>
       </c>
@@ -11872,7 +14359,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>403</v>
       </c>
@@ -11892,7 +14379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>405</v>
       </c>
@@ -11915,7 +14402,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
         <v>408</v>
       </c>
@@ -11938,7 +14425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F5154C-15D6-451D-B6E6-85A32715717E}">
   <dimension ref="A1:F41"/>
   <sheetViews>
@@ -11946,15 +14433,15 @@
       <selection activeCell="A2" sqref="A2:F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11974,7 +14461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -11994,7 +14481,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>102</v>
       </c>
@@ -12008,7 +14495,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>105</v>
       </c>
@@ -12025,7 +14512,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -12042,7 +14529,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -12059,7 +14546,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>114</v>
       </c>
@@ -12076,7 +14563,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>117</v>
       </c>
@@ -12090,7 +14577,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>119</v>
       </c>
@@ -12107,7 +14594,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>122</v>
       </c>
@@ -12124,7 +14611,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>125</v>
       </c>
@@ -12141,7 +14628,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>128</v>
       </c>
@@ -12155,7 +14642,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -12172,7 +14659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>132</v>
       </c>
@@ -12186,7 +14673,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -12203,7 +14690,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>137</v>
       </c>
@@ -12217,7 +14704,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>139</v>
       </c>
@@ -12234,7 +14721,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -12251,7 +14738,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -12268,7 +14755,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>147</v>
       </c>
@@ -12285,7 +14772,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>151</v>
       </c>
@@ -12299,7 +14786,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>362</v>
       </c>
@@ -12319,7 +14806,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>365</v>
       </c>
@@ -12339,7 +14826,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>368</v>
       </c>
@@ -12359,7 +14846,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>371</v>
       </c>
@@ -12376,7 +14863,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>373</v>
       </c>
@@ -12396,7 +14883,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>455</v>
       </c>
@@ -12413,7 +14900,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>456</v>
       </c>
@@ -12430,7 +14917,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>460</v>
       </c>
@@ -12447,7 +14934,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>463</v>
       </c>
@@ -12461,7 +14948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>465</v>
       </c>
@@ -12481,7 +14968,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>468</v>
       </c>
@@ -12498,7 +14985,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>471</v>
       </c>
@@ -12515,7 +15002,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>474</v>
       </c>
@@ -12535,7 +15022,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>478</v>
       </c>
@@ -12552,7 +15039,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>481</v>
       </c>
@@ -12569,7 +15056,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>484</v>
       </c>
@@ -12586,7 +15073,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>420</v>
       </c>
@@ -12603,7 +15090,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>489</v>
       </c>
@@ -12617,7 +15104,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>491</v>
       </c>
@@ -12634,7 +15121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>494</v>
       </c>
@@ -12656,7 +15143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5992480-332C-4A20-A071-EB6B406AED48}">
   <dimension ref="A1:F50"/>
   <sheetViews>
@@ -12664,13 +15151,13 @@
       <selection activeCell="A2" sqref="A2:F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12690,7 +15177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -12707,7 +15194,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -12724,7 +15211,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -12741,7 +15228,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -12758,7 +15245,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>164</v>
       </c>
@@ -12775,7 +15262,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -12792,7 +15279,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -12809,7 +15296,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -12826,7 +15313,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -12843,7 +15330,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -12860,7 +15347,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -12877,7 +15364,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>185</v>
       </c>
@@ -12894,7 +15381,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -12911,7 +15398,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -12928,7 +15415,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -12948,7 +15435,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -12965,7 +15452,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -12982,7 +15469,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>203</v>
       </c>
@@ -12999,7 +15486,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -13016,7 +15503,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -13033,7 +15520,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>334</v>
       </c>
@@ -13050,7 +15537,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -13070,7 +15557,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>340</v>
       </c>
@@ -13087,7 +15574,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>343</v>
       </c>
@@ -13104,7 +15591,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>346</v>
       </c>
@@ -13121,7 +15608,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>349</v>
       </c>
@@ -13141,7 +15628,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>352</v>
       </c>
@@ -13161,7 +15648,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>354</v>
       </c>
@@ -13181,7 +15668,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>357</v>
       </c>
@@ -13201,7 +15688,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>360</v>
       </c>
@@ -13221,7 +15708,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>497</v>
       </c>
@@ -13238,7 +15725,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>500</v>
       </c>
@@ -13255,7 +15742,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>503</v>
       </c>
@@ -13269,7 +15756,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>505</v>
       </c>
@@ -13283,7 +15770,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>507</v>
       </c>
@@ -13300,7 +15787,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>510</v>
       </c>
@@ -13317,7 +15804,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>513</v>
       </c>
@@ -13334,7 +15821,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>516</v>
       </c>
@@ -13351,7 +15838,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>519</v>
       </c>
@@ -13368,7 +15855,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>420</v>
       </c>
@@ -13385,7 +15872,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>524</v>
       </c>
@@ -13402,7 +15889,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>524</v>
       </c>
@@ -13419,7 +15906,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>420</v>
       </c>
@@ -13436,7 +15923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>420</v>
       </c>
@@ -13453,7 +15940,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>532</v>
       </c>
@@ -13470,7 +15957,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>535</v>
       </c>
@@ -13487,7 +15974,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>537</v>
       </c>
@@ -13504,7 +15991,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>540</v>
       </c>
@@ -13518,7 +16005,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>541</v>
       </c>
@@ -13539,1361 +16026,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FDDDBA-7BE6-43BC-A6BD-AAD739BA0F06}">
-  <dimension ref="A1:F33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B16" t="s">
-        <v>267</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>272</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>274</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B20" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>282</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B24" t="s">
-        <v>287</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B25" t="s">
-        <v>290</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B26" t="s">
-        <v>293</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>315</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B28" t="s">
-        <v>318</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B29" t="s">
-        <v>321</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B30" t="s">
-        <v>324</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B31" t="s">
-        <v>327</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B32" t="s">
-        <v>330</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B33" t="s">
-        <v>332</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D721B770-B59E-4DB4-A9B4-84662EBA6B9F}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>304</v>
-      </c>
-      <c r="B10" t="s">
-        <v>305</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>298</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B12" t="s">
-        <v>311</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>298</v>
-      </c>
-      <c r="F12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D25241-FE91-45A2-8BFD-0891BEA80A9E}">
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2" t="s">
-        <v>412</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C3" t="s">
-        <v>412</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>420</v>
-      </c>
-      <c r="B6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>420</v>
-      </c>
-      <c r="B8" t="s">
-        <v>425</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>427</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>420</v>
-      </c>
-      <c r="B10" t="s">
-        <v>429</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>431</v>
-      </c>
-      <c r="B11" t="s">
-        <v>432</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>434</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>420</v>
-      </c>
-      <c r="B13" t="s">
-        <v>435</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B14" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>440</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>442</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>444</v>
-      </c>
-      <c r="B17" t="s">
-        <v>445</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>447</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>449</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>451</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>381</v>
-      </c>
-      <c r="B21" t="s">
-        <v>453</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>544</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>546</v>
-      </c>
-      <c r="B23" t="s">
-        <v>547</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="B24" t="s">
-        <v>550</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>552</v>
-      </c>
-      <c r="B25" t="s">
-        <v>553</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>555</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="B27" t="s">
-        <v>558</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/data_dump.xlsx
+++ b/data/data_dump.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\finalproject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FF1013-7611-4B8A-A14F-4FEA44045E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF1DC39-385C-4B1E-95AA-C10A4870C563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{716B8A15-0A8A-405C-827E-E6324A515ECE}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{716B8A15-0A8A-405C-827E-E6324A515ECE}"/>
   </bookViews>
   <sheets>
     <sheet name="Matematika SMA" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="1281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3659" uniqueCount="1608">
   <si>
     <t>text</t>
   </si>
@@ -5757,6 +5757,1403 @@
  C. 6
  D. 8
  E. 10 </t>
+  </si>
+  <si>
+    <t>Dalam lahan parkir suatu sekolah, 21 dari 25 sepeda yang terparkir tidak memiliki boncengan di belakang. Persentase dari sepeda yang tidak memiliki boncengan di belakang adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 21 %_x000D_
+ B. 46 %_x000D_
+ C. 84 %_x000D_
+ D. 96 %_x000D_
+ </t>
+  </si>
+  <si>
+    <t>Besar sudut terkecil yang dibentuk jarum jam pada pukul 04.00 sama dengan . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  B.  C.  D.  </t>
+  </si>
+  <si>
+    <t>Dari gambar disamping, banyak semua sudut yang salah satu kaki sudutnya AD adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 2_x000D_
+ B. 3_x000D_
+ C. 4_x000D_
+ D. 6_x000D_
+ </t>
+  </si>
+  <si>
+    <t>Pada gambar di atas,  dan . Panjang AB = 20cm, AC = 15cm, dan BC = 25cm. Panjang AD adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 5 cm_x000D_
+ B. 6 cm_x000D_
+ C. 10 cm_x000D_
+ D. 12 cm </t>
+  </si>
+  <si>
+    <t>Kue dalam kaleng dibagikan kepada 6 orang anak, masing-masing mendapat 30 kue dan tidak tersisa. Bila kue tersebut dibagikan kepada 10 orang anak, masing-masing mendapat kue sebanyak . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  11_x000D_
+_x000D_
+ B.  15_x000D_
+_x000D_
+ C.  16_x000D_
+_x000D_
+ D.  18_x000D_
+ </t>
+  </si>
+  <si>
+    <t>Pa Ahmad membeli 1 kodi baju batik di Pekalongan dengan harga Rp1.440.000,00. Harga pembelian tiap potong baju batik tersebut sama, sehingga harga tiap potongnya adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Rp10.000_x000D_
+ B. Rp72.000_x000D_
+ C. Rp120.000_x000D_
+ D. Rp144.000 _x000D_
+ </t>
+  </si>
+  <si>
+    <t>Sebuah mesin di suatu pabrik minuman mampu memasang tutup botol untuk 14 botol dalam waktu 84 detik. Banyak botol yang dapat ditutup oleh mesin dalam waktu 2 menit adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 16 botol B. 20 botol C. 28 botol D. 35 botol </t>
+  </si>
+  <si>
+    <t>Sebuah mobil memerlukan 8 liter bensin untuk menempuh jarak 96 km. jika mobil itu menghahabiskan 35 liter bensin, maka jarak yang ditempuh adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 139 km_x000D_
+ B. 360 km_x000D_
+ C. 420 km_x000D_
+ D. 488 km </t>
+  </si>
+  <si>
+    <t>Sebuah peta Pulau Jawa dibuat dengan skala 1 : 1.500.000. Jika jarak antara Jakarta dan Bandung pada peta tersebut 12 cm, maka jarak sebenarnya adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 180 km B. 150 km C. 83,3 km D. 18 km </t>
+  </si>
+  <si>
+    <t>Seorang peternak mempunyai persediaan pakan untuk 25 ekor sapi selama 22Â hari. Peternak itu membeli beberapa ekor sapi lagi, sehingga persediaan pakan habis dalam waktu 10 hari. Banyak sapi yang dibeli oleh peternak tersebut adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  5 ekor_x000D_
+ B. 10 ekor_x000D_
+ C. 22 ekor_x000D_
+ D. 30 ekor </t>
+  </si>
+  <si>
+    <t>Perhatikan tabel berikutDiantara keempat penjual tersebut, yang mendapatkan keuntungan terbesar adalah penjualan . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. A_x000D_
+ B. B_x000D_
+ C. C_x000D_
+ D. D </t>
+  </si>
+  <si>
+    <t>Diketahui pernyataan-pernyataan berikut :1.Sisi-sisi yang berhadapan sama panjang2.Sudut-sudut yang berhadapan sama besar3.Diagonal-diagonal yang sama panjang4.Diagonal-diagonalnya berpotongan dan membagi dua sama panjangDari pernyataan-pernyataan diatas, yang merupakan sifat jajargenjang adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 1, 2, dan 3_x000D_
+ B. 1, 2, dan 4_x000D_
+ C. 1, 3, dan 4_x000D_
+ D. 2, 3, dan 4  </t>
+  </si>
+  <si>
+    <t>Jarak antara dua kota pada peta adalah 2 cm. Jarak sebenarnya kedua kota adalah 80 km. Skala yang digunakan peta tersebut adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 1 : 400.000_x000D_
+ B. 1 : 800.000_x000D_
+ C. 1 : 4.000.000_x000D_
+ D. 1 : 8.000.000 </t>
+  </si>
+  <si>
+    <t>Pembangunan sebuah gedung direncanakan selesai dalam waktu 60 hari jika dikerjakan oleh 24 orang. Setelah dikerjakan 40 hari, pekerjaan tersebut terhenti selama 8 hari. Agar pembangunan gedung tersebut selesai tepat pada waktunya, banyak tambahan pekerja yang dibutuhkan adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 4 orang B. 5 orang C. 8 orang D. 16 orang </t>
+  </si>
+  <si>
+    <t>Pengumpulan data tentang kegiatan ektrakulikuler yang diikuti siswa dapat dilakukan dengan metode berikut, kecuali . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Angket_x000D_
+ B. Wawancara_x000D_
+ C. Observasi_x000D_
+ D. Dokumentasi </t>
+  </si>
+  <si>
+    <t>Penyajian data yang paling tepat untuk menggambarkan prosentase jenis pekerjaan orang tua siswa kelas 7 adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Diagram batang_x000D_
+ B. Diagram garis_x000D_
+ C. Diagram lingkaran_x000D_
+ D. Diagram lambing </t>
+  </si>
+  <si>
+    <t>Perbandingan kecepatan 6 km per jam dengan 40 meter per menit dapat disederhanakan menjadi ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 1 : 4_x000D_
+ B. 3 : 2_x000D_
+ C. 3 : 20_x000D_
+ D. 5 : 2 </t>
+  </si>
+  <si>
+    <t>Rasio waktu yang diluangkan Karina untuk mengerjakan tugas Matematika terhadap tugas IPA adalah 5 banding 4. Jika dia meluangkan waktu 40 menit untuk menyelesaikan tugas Matematika, maka waktu yang dia luangkan untuk menyelesaikan tugas IPA adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 20 Menit_x000D_
+ B. 32 menit_x000D_
+ C. 60 menit_x000D_
+ D. 90 menit </t>
+  </si>
+  <si>
+    <t>Reni mengoleksi buku bacaan berupa novel sebanyak 72 buku. Rasio jumlah novel ber-genre drama dan misteri 7 : 5. Banyak novel misteri yang harus Reni beli lagi supaya rasio kedua genre novel tersebut menjadi 1 : 1 adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 9 B. 12 C. 22 D. 24 </t>
+  </si>
+  <si>
+    <t>Sebungkus cokelat akan dibagikan kepada 24 anak, setiap anak mendapat 8 cokelat. Jika cokelat itu dibagikan kepada 16 anak, maka banyak cokelat yang diperoleh setiap anak adalah . . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 8 cokelat_x000D_
+ B. 12 cokelat_x000D_
+ C. 16 cokelat_x000D_
+ D. 48 cokelat_x000D_
+ D.  </t>
+  </si>
+  <si>
+    <t>Seorang pedagang membeli 1 karung gula putih dengan bruto 50 kg dan tara 2 %, dengan harga Rp400.000. Harga penjualan per kg gula tersebut jika pedagang itu untung 20 % adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Rp8.000_x000D_
+ B. Rp9.600_x000D_
+ C. Rp9.796_x000D_
+ D. Rp10.000 _x000D_
+ </t>
+  </si>
+  <si>
+    <t>Tabel berikut menunjukkan kecepatan empat merek printerPrinter manakah yang mencetak paling cepat ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Roboprint B. Voldeprint C. BiTech Plus D. EL Pro </t>
+  </si>
+  <si>
+    <t>Pak Adi meminjam uang di Bank Indonesia sebesar Rp 15.000.000 dengan bunga 16% pertahun. Tentukan bunga yang ditanggung oleh Pak Adi jika akan meminjam selama 3 bulan . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Rp300.000_x000D_
+ B. Rp400.000_x000D_
+ C. Rp500.000_x000D_
+ D. Rp600.000_x000D_
+ </t>
+  </si>
+  <si>
+    <t>Pak Iqbal menjual laptop (baru) dengan harga Rp. 4.000.000,00 (tanpa pajak). Laptop tersebut dibeli oleh Pak Ro`uf dengan Pajak Pertambahan Nilai (PPN) 10%. Tentukan uang yang harus dibayarkan oleh Pak Ro`uf (termasuk pajak). Jelaskan !\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Rp1.500_x000D_
+ B. Rp1.750_x000D_
+ C. Rp1.833_x000D_
+ D. Rp1.857_x000D_
+_x000D_
+_x000D_
+ </t>
+  </si>
+  <si>
+    <t>Sebuah toko memberikan diskon 10 % untuk pembelian sampai Rp100.000 dan 15 % untuk kelebihannya. Jika seorang pembeli berbelanja sebesar Rp300.000, maka yang harus dibayar adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Rp225.000_x000D_
+ B. Rp255.000_x000D_
+ C. Rp260.000_x000D_
+ D. Rp270.000_x000D_
+ </t>
+  </si>
+  <si>
+    <t>Seorang pedagang membeli manga seharga Rp380.000 dengan ongkos angkutan Rp30.000. Setelah terjual habis, pedagang itu memperoleh uang Rp450.000. Dalam keadaan ini, pedagang memperoleh . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Rugi Rp40.000_x000D_
+ B. Rugi Rp70.000_x000D_
+ C. Untung Rp40.000_x000D_
+ D. Untung Rp70.000_x000D_
+ </t>
+  </si>
+  <si>
+    <t>Seseorang mengeluarkan Rp2.000.000,00 untuk menjalankan usahanya. Jika pada hari itu dia memperoleh keuntungan sebesar 5 % maka besarnya pendapatan yang didapatkan pada hari tu adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Rp1.900.000_x000D_
+ B. Rp1.950.000_x000D_
+ C. Rp2.050.000_x000D_
+ D. Rp2.100.000 </t>
+  </si>
+  <si>
+    <t>Perhatikan gambar berikut :Trapezium PQRS di atas siku-siku di S. Jika panjang PQ = 10 cm, SR = 15 cm, PS = 12 cm, dan QR = 13 cm, maka luas trapezium tersebut adalah . . .</t>
+  </si>
+  <si>
+    <t>Pada gambar diatas, terdapat pasangan sudut berikut :(i).ÃA2 sehadap dengan ÃB2(ii).ÃA3 dalam berseberangan dengan ÃB1(iii).ÃA1 luar sepihak dengan ÃB3Dari pernyataan diatas, yang benar adalah . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. (i) dan (ii)_x000D_
+ B. (i) dan (iii)_x000D_
+ C. (ii) dan (iii)_x000D_
+ D. (i), (ii), dan (iii) </t>
+  </si>
+  <si>
+    <t>Tabel diatas menunjukkan waktu yang dibutuhkan oleh seorang perajin untuk membuat sepatu. Berapa hari waktu yang diperlukan untuk membuat 75 pasang sepatu ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagram berikut menyajikan lima jenis burung yang dilindungi.   							 </t>
+  </si>
+  <si>
+    <t>Jika jumlah kelima jenis burung tersebut 40 ekor, selisih antara burung jalak Bali dan Kasuari adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  2 ekor
+ B.  3 ekor
+ C.  4 ekor
+ D.  5 ekor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pak Ali mempunyai kebun dengan bentuk seperti pada gambar di bawah.   							 </t>
+  </si>
+  <si>
+    <t>Kebun tersebut akan dijual dengan harga Rp2000.000,00 per m2. Hasil penjualan kebun Pak Ali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  Rp. 288.000.000,00
+ B.  Rp. 300.000.000,00
+ C.  Rp. 360.000.000,00
+ D.  Rp. 576.000.000,00   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhatikan bangun berikut!   							 </t>
+  </si>
+  <si>
+    <t>Keliling bangun di atas adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  27 cm
+ B.  19 cm
+ C.  17 cm
+ D.  14 cm </t>
+  </si>
+  <si>
+    <t>Panjang sisi-sisi suatu segitiga diketahui berturut-turut p cm, 2p cm, dan (p+4) cm. Keliling segitiga tersebut adalah ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  ( 4p+p) cmÂ Â Â Â 
+ B. ( 3p+p) cmÂ Â Â Â           
+ C. ( 2p+6) cm
+ D.  ( 2p+2) cm
+							Â  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;nbsp; Bentuk sederhana dari 35 : 55 adalah...   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 5 : 7
+ B. 6 : 8
+ C. 7 : 11
+ D. 10 : 13
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhatikan bangun datar di bawah ini   							  Â  </t>
+  </si>
+  <si>
+    <t>Luas bangun datar tersebut adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 300 cm2 B. 400 cm2 C. 500 cm2 D. 600 cm2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luas suatu segitiga adaalah 20 cm2, jika alas segitiga 8 cm.   </t>
+  </si>
+  <si>
+    <t>Tinggi segitiga tersebut adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 5 cm2 B. 6 cm2 C. 10 cm2 D. 13 cm2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhatikan gambar di bawah!   							 </t>
+  </si>
+  <si>
+    <t>Luas bangun ABCDE adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 185 cm2 B. 186 cm2 C. 187 cm2 D. 190 cm2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banyak siswa laki-laki 24 dan perempuan adalah 20.  </t>
+  </si>
+  <si>
+    <t>Perbandingan banyak siswa laki-laki dan perempuan adalah...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 6 : 4 
+ B. 6 : 5 
+ C. 4 : 5 
+ D. 4 : 6
+ </t>
+  </si>
+  <si>
+    <t>Budi ingin membuat layang-layang dengan menggunakan kertas kraton dengan ukuran diagonal satu 20 cm dan diagonal lainnya 35 cm. Luas karton yang dibutuhkan Budi adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 350 cm2 B. 450 cm2 C. 600 cm2 D. 650 cm2 </t>
+  </si>
+  <si>
+    <t>Jika di dalam kelas terdapat meja berbentuk belah ketupat dengan panjang diagonal-diagonalnya 25 m dan 8 m. luas meja tersebut adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 400 cm2 B. 300 cm2 C. 100 cm2 D. 50 cm2 </t>
+  </si>
+  <si>
+    <t>Perbandingan umur ibu dan umur anaknya 8:3. Bila umur ibu 40 tahun, maka umur anaknya adalah...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 11 tahun
+ B. 13 tahun
+ C. 14 tahun
+ D. 15 tahun
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhatikan diagram batang berikut !    							 </t>
+  </si>
+  <si>
+    <t>Penurunan yang tinggi penjualan kendaraan di kota X terjadi pada bulan...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Januari â€“ FebruariÂ 
+ B. Februari â€“ MaretÂ  
+ C. Maret â€“ April
+ D. Juni â€“ JuliÂ 
+Â 
+Â 
+Â 
+Â 
+Â  </t>
+  </si>
+  <si>
+    <t>Penyajian data yang paling tepat untuk menggambarkan presentase jenis pekerjaan orang tua siswa kelas 7 adalah ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Diagram batang
+ B. Diagram lingkaran
+ C. Diagram garis
+ D. Diagram lambang
+ </t>
+  </si>
+  <si>
+    <t>Ayah akan membagikan uang sejumlah Rp 240.000,00 keada Amir dan Budi dengan perbandingan 3 : 5. Maka jumlah uang yang diterima oleh Budi adalahâ€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Rp 90.000,00
+ B. Rp 110.000,00
+									 C. Rp 130.000,00
+									 D. Rp 150.000,00
+									 </t>
+  </si>
+  <si>
+    <t>Nilai dari [8 + (â€“32) â€“ (â€“4)] â€“ [ â€“5 + 4 + (â€“2)3] adalah....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. â€“12
+ B. â€“6
+ C. 6
+ D. 12
+ </t>
+  </si>
+  <si>
+    <t>Nilaidari 12 x (â€“2) : 4 + ( â€“5) = ....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. â€“12
+ B. â€“11
+ C. 11
+ D. 12
+ </t>
+  </si>
+  <si>
+    <t>Nilaidari [8 + (â€“32) â€“ (â€“4)] â€“ [ â€“5 + 4 + (â€“2)3] adalah....</t>
+  </si>
+  <si>
+    <t>Pecahan yang senilai dengan adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 0,825
+ B. 87,5%
+ C. 
+									 D. 87,5â€°
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedoman penilaian lomba matematika tingkat kota adalah sebagai berikut :  Â Â Â Â -  Soal dijawab benar diberi nilai 4  Â Â Â Â -  Soal dijawab salah diberi nilai â€“ 2  Â Â Â Â -  Soal tidak dijawab diberi nilai â€“ 1  </t>
+  </si>
+  <si>
+    <t>Jika ada 50 soal dan Budi menjawab benar 25 soal dan 10 soal tidak dijawab, maka nilai Budi adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 95
+ B. 85
+ C. 75
+ D. 60
+ </t>
+  </si>
+  <si>
+    <t>Pelurus dari sudut 1080 adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 620 B. 680 C. 720 D. 780 </t>
+  </si>
+  <si>
+    <t>Diantara persamaan berikut yang merupakan persamaan linier satu variabel adalah....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 
+Â 
+ B.  C.  D.  </t>
+  </si>
+  <si>
+    <t>Himpunan penyelesaian dari 3x + 6 &amp;lt; 21 ,jika x himpunan bilangan cacah adalah.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. {1,2,3,4,5}
+ B. {1,2,3,4}
+ C. {0,1,2,3,4,5}
+ D. {0,1 ,2, 3, 4}  </t>
+  </si>
+  <si>
+    <t>Himpunan penyelesaian dari 4x + 5 = 3x + 9 adalah......</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. {2} 
+ B. {4} 
+ C. {7} 
+ D. {14}    </t>
+  </si>
+  <si>
+    <t>Besar sudut dari  Â¼  putaran penuh merupakan sudut â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. lancip
+ B. tumpul
+ C. siku-siku
+ D. reflektif
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhatikan garis-garis di bawah ini !   							 </t>
+  </si>
+  <si>
+    <t>Manakah pasangan sudut diatas yang sejajarâ€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Garis A dan B
+ B. Garis C dan D
+ C. Garis A dan E
+ D. Garis B dan F
+ </t>
+  </si>
+  <si>
+    <t>Ibu Ani ingin membuat slayer berbentuk segitiga sama kaki seperti gambar berikut. Ukuran alas slayer 35 cm dan sisi yang lain 20 cm. Di sekeliling slayer akan ditempel renda. Jika harga renda Rp7.000,00 per meter, maka harga renda yang dibutuhkan adalahâ€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Rp 5.250,00
+ B. Rp 6.000,00
+										 C. Rp 6.250,00
+										 D. Rp 9.000,00 </t>
+  </si>
+  <si>
+    <t>Hasil perkalian bentuk aljabar  - 8( a â€“ 2b + 5 ) = â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. - 8a â€“ 6b + 5
+ B. â€“ 3a + b â€“ 5
+ C. â€“ 8a â€“ 16b + 40
+ D. - 8a + 16b â€“ 40
+ </t>
+  </si>
+  <si>
+    <t>Sekar hanya mengerjakan 20 soal tes matematika dari total soal 25.  Sebanyak 17  jawabannya benar dan sisanya salah.  Jika jawaban benar bernilai 4, jawaban salah bernilai -1 dan tidak menjawab bernilai 0, maka nilai yang didapat Sekar adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 90
+ B. 85
+ C. 75
+ D. 65
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"># KD31  </t>
+  </si>
+  <si>
+    <t>Jika pecahan 0,75, , 30%,diurutkan mulai dari yang terkecil adalah ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 
+, , 30%, 0,75
+ B. 
+, , 0,75, 30%
+ C. 30%, , , 0,75
+ D. 30%, , 0,75,  </t>
+  </si>
+  <si>
+    <t>0perasi " # " artinya kuadratkanlah bilangan pertama, kemudian kurangilah hasilnya dengan 3 kali bilangan kedua ". Nilai dari -5 # -4 adalahâ€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 37
+ B. 22
+ C. -22
+ D. -37 </t>
+  </si>
+  <si>
+    <t>Bentuk sederhana dari 8x+7xyâ€“2x+xy adalah ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 6x + 8xy
+ B. 15x â€“ xy
+ C. 6x + 7xy
+ D. 10x + 7xy </t>
+  </si>
+  <si>
+    <t>Ibu Siti membeli empat gelondong kain untuk menjahit seragam paduan suara. Setelah selesai semua baju dijahit, ternyata kain masih sisa 3 meter. Bentuk aljabar kain yang digunakan adalah ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 3x + 3
+										 B. 3x â€“ 4 
+										 C. 4x + 4
+										 D. 4x â€“ 3  </t>
+  </si>
+  <si>
+    <t>Harga 6 meter kain Rp. 90.000,00. Harga 25 meter kain adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  Rp300.000,00
+ B.  Rp375.000,00Â Â Â Â 
+ C.  Rp450.000,00
+ D.  Rp525.000,00 </t>
+  </si>
+  <si>
+    <t>Jika pada sebuah peta jarak setiap 4 cm mewakili 14 km jarak sebenarnya, maka besar skala peta tersebut adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  1 : 380.000
+ B.  1 : 350.000
+ C.  1 : 35. 000
+ D.  1 : 3.500 </t>
+  </si>
+  <si>
+    <t>Pada sebuah peta yang memiliki skala 1 : 400.000, jarak kota A dan kota B adalah 8 cm. berapa jarak kedua kota tersebut yang sebenarnya â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  32 km
+ B.  24 kmÂ Â Â Â 
+ C.  16 km
+ D.  12 km </t>
+  </si>
+  <si>
+    <t>Sebuah mobil memerlukan 5 liter bensin untuk menempuh jarak 60 km. jika mobil tersebut menghabiskan 40 liter bensin, maka jarak yang ditempuh mobil tersebut adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  200 km
+ B.  240 kmÂ Â Â Â 
+ C.  300 km
+ D.  480 km </t>
+  </si>
+  <si>
+    <t>Sebuah piring hitam berputar 45 putaran per menit selama 13 menit. Berapa lama piring hitam berputar jika kecepatan putarannya 78 putaran per menit â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  6,5 menit
+ B.  7 menit
+ C.  7,5 menit
+ D.  8 menit </t>
+  </si>
+  <si>
+    <t>Seseorang mempunyai sejumlah uang yang akan diambil tiap bulan yang besarnya mengikuti aturan barisan aritmetika. Pada bulan pertama diambil Rp1.000.000,00, bulan kedua Rp925.000,00, bulan ketiga Rp850.000,00, demikian seterusnya. Jumlah seluruh uang yang telah diambil selama 12 bulan pertama adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Rp6.750.000,00
+ B. Rp7.050.000,00
+ C. Rp7.175.000,00
+ D. Rp7.225.000,00
+ E. Rp7.300.000,00 </t>
+  </si>
+  <si>
+    <t>Rumus jumlah n suku pertama deret aritmetika adalah . Suku ketujuh dari deret tersebut adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 39
+							 B.  45Â Â Â Â 
+							 C. 75
+							 D. 78
+							 E.  87 </t>
+  </si>
+  <si>
+    <t>Bakteri jenis A berkembang biak menjadi dua kali lipat setiap lima menit. Pada waktu lima belas menit pertama banyaknya bakteri ada 400. Banyaknya bakteri pada waktu tiga puluh lima menit pertama adalah â€¦ bakteri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  640Â Â Â Â 
+							 B.  6.400
+							 C. 32.00
+							 D. 12.800
+							 E. 3.2000Â Â Â Â  </t>
+  </si>
+  <si>
+    <t>Seorang ayah membagikan uang sebesar Rp 100.000,00 kepada 4 orang anaknya. Makin muda usia anak, makin kecil uang yang diterima. Jika selisih yang diterima oleh setiap dua anak yang usianya berdekatan adalah Rp 5.000,00 dan si sulung menerima uang paling banyak, maka jumlah uang yang diterima oleh si bungsu adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Rp     15.000,00Â Â Â Â 
+							 B. Rp      22.500,00
+							 C. Rp     17.500,00
+							 D. Rp     25.000,00
+							 E. Rp     20.000,00Â Â Â Â  </t>
+  </si>
+  <si>
+    <t>Suatu perusahaan pakaian dapat menghasilkan 4.000 buah pada awal produksi. Pada bulan berikutnya produksi dapat ditingkatkan menjadi 4.050. Bila kemajuan tetap, maka jumlah produksi dalam 1 tahun ada â€¦ buah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 45.500 Â Â Â Â 
+							 B.  50.500Â Â Â Â 
+							 C. . 55.500
+							 D. 48.000 Â Â Â Â 
+							 E.  51.300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suatu ruang pertunjukan memiiliki 25 baris kursi. Terdapat 30 kursi pada baris pertama, 34 kursi pada baris kedua, 38 kursi di baris ketiga, 42 kursi pada baris keempat dan seterusnya. Jumlah kursi yang ada dalam ruang pertunjukan adalah â€¦ buah  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 1.535 
+							 B.  1.950Â Â Â Â 
+							 C. 2.700
+							 D. 1.575 Â Â Â Â 
+							 E. 2.000Â Â Â Â  Â Â Â Â  </t>
+  </si>
+  <si>
+    <t>Diketahui lima orang bersaudara dengan selisih umur yang sama. Anak termuda berusia 13 tahun dan yang tertua 33 tahun. Jumlah usia mereka seluruhnya adalah â€¦ tahun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 112
+ B. 115
+ C. 125
+ D. 130
+ E. 160 </t>
+  </si>
+  <si>
+    <t>Diketahui suku kedua dan suku keenam suatu deret geometri dengan suku positif berturut-turut adalah 6 dan 96. Jumlah lima suku pertama deret tersebut adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 72
+ B. 93
+ C. 96
+ D. 151
+ E. 160 </t>
+  </si>
+  <si>
+    <t>Jumlah lima suku pertama suatu deret geometri adalah 93 dan rasio deret itu 2, hasil kali suku ke-3 dan ke-6 adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 4.609
+ B. 2.304
+ C. 1.152
+ D. 768
+ E. 384 </t>
+  </si>
+  <si>
+    <t>Jumlah sepuluh suku pertama deret log 2 + log 6 + log 18 + log 54 + â€¦ adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 
+										 B. 
+ C. 
+ D. 
+ E. 
+								 </t>
+  </si>
+  <si>
+    <t>Populasi suatu jenis serangga setiap tahun menjadi dua kali lipat. Jika populasi serangga tersebut saat ini mencapai 5000 ekor, maka 10 tahun yang akan datang populasinya sama dengan â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 2.557.500 ekor
+ B. 2.560.000 ekor
+ C. 5.090.000 ekor
+ D. 5.115.000 ekor
+ E. 5.120.000 ekor </t>
+  </si>
+  <si>
+    <t>Suku ke-5 sebuah deret aritmetika adalah 11 dan jumlah nilai suku ke-8 dengan suku ke-12 sama dengan 52. Jumlah 8 suku yang pertama deret itu adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 68
+ B. 72
+ C. 76
+ D. 80
+ E. 84 </t>
+  </si>
+  <si>
+    <t>Tiga bilangan membentuk barisan aritmetika. Jika suku ketiga ditambah dua, dan suku kedua dikurangi dua, diperoleh barisan geometri. Jika suku ketiga barisan aritmetika ditambah 2 maka hasilnya menjadi empat kali suku pertama. Maka suku pertama deret aritmetika tersebut adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 4 
+ B. 6
+ C. 8
+ D. 12
+ E. 14 </t>
+  </si>
+  <si>
+    <t>Seorang penjual daging pada bulan Januari menjual 120 kg, bulan Februari 130 kg, Maret dan seterusnya selama 10 bulan selalu bertambah 10kg dari bulan sebelumnya. Jumlah daging yang terjual selama 10 bulan adalah â€¦ kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 1050
+ B. 1200
+ C. 1350
+ D. 1600
+ E. 1750
+ </t>
+  </si>
+  <si>
+    <t>Suku ke-4 dan ke-9 suatu barisan aritmetika berturut-turut adalah 110 dan 150. Suku ke-30 barisan aritmetika tersebut adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 308
+ B. 318
+ C. 326
+ D. 344
+ E. 354 </t>
+  </si>
+  <si>
+    <t>Suku ke-6 dan ke-12 suatu barisan aritmetika berturut-turut adalah 35 dan 65. Suku ke-52 barisan aritmetika tersebut adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 245
+ B. 255
+ C. 260
+ D. 285
+ E. 355 </t>
+  </si>
+  <si>
+    <t>Tiga buah bilangan membentuk barisan aritmetika dengan beda tiga. Jika suku kedua dikurangi 1, maka terbentuklah barisan geometri dengan jumlah 14. Rasio barisan tersebut adalah â€¦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 4  
+ B. 2
+ C. 1/2
+ D. -1/2
+ E. -2 </t>
+  </si>
+  <si>
+    <t>-150 +  65 = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. -215
+ B. -85
+ C. 85
+ D. 215 </t>
+  </si>
+  <si>
+    <t>-240 - 133 = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. -373
+ B. -107
+ C. 107
+ D. 373 </t>
+  </si>
+  <si>
+    <t>-45 - (-160) = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. -115
+ B. 115
+ C. 125
+ D. 205 </t>
+  </si>
+  <si>
+    <t>-65 â€“ 22 + 10  = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. -87
+ B. -67
+ C. -57
+ D. -53 </t>
+  </si>
+  <si>
+    <t>-75 + (-120) = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. -195
+ B. 45
+ C. 55
+ D. 195 </t>
+  </si>
+  <si>
+    <t>-85   + 100 - 45 = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. -60
+ B. -30
+ C. 30
+ D. 60 </t>
+  </si>
+  <si>
+    <t>-85 + 100 = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 185
+ B. 15
+ C. -15
+ D. -185 </t>
+  </si>
+  <si>
+    <t>-85 + 25  + 100  = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. -160
+ B. -40
+ C. 10
+ D. 40
+								 </t>
+  </si>
+  <si>
+    <t>120 + (- 45) - 12  = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 63
+ B. 87
+ C. 153
+ D. 163 </t>
+  </si>
+  <si>
+    <t>150 + (-30) = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. -130
+ B. -120
+ C. 120
+ D. 130 </t>
+  </si>
+  <si>
+    <t>240 + ( - 130)  = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. -370
+ B. -110
+ C. 170
+ D. 370 </t>
+  </si>
+  <si>
+    <t>25 + (-95) = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 120
+ B. 70
+ C. -70
+ D. -120 </t>
+  </si>
+  <si>
+    <t>250 -  (-95) = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 145
+ B. 155
+ C. 335
+ D. 345 </t>
+  </si>
+  <si>
+    <t>295  + ( - 142)  +  69  = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 153
+ B. 212
+ C. 222
+ D. 322 </t>
+  </si>
+  <si>
+    <t>92 - (-100) = â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. -192
+ B. -18
+ C. 8
+ D. 192 </t>
+  </si>
+  <si>
+    <t>Jika pada suatu deret aritmatika suku ke-7 dan suku ke-10 beerturut-turut 13 dan 19, maka jumlah 20 suku pertama adalah . . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 100
+ B. 200
+ C. 300
+ D. 400
+ E. 500 </t>
+  </si>
+  <si>
+    <t>Jumlah bilangan diantara 5 dan 100 yang habis dibagi 7 tetapi tidak habis dibagi 4 adalah . . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 168
+ B. 567
+ C. 651
+ D. 667
+ E. 735 </t>
+  </si>
+  <si>
+    <t>Jumlah bilangan-bilangan bulat antara 250 dan 1.000 yang habis dibagi 7 adalah . . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 45.692
+ B. 66.661
+ C. 73.775
+ D. 80.129
+ E. 54.396 </t>
+  </si>
+  <si>
+    <t>Jumlah dari 33 suku pertama dari deret aritmatika adalah 891. Jika suku pertama deret tersebut adalah 7, maka suku ke-33 adalah . . . ....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 41
+ B. 45
+ C. 47
+ D. 49
+ E. 51 </t>
+  </si>
+  <si>
+    <t>Suku keempat suatu deret aritmatika adalah 9 dan jumlah suku keenam dan kedelapan adalah 30. Jumlah 20 suku pertama deret tersebut adalah . . . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 200
+ B. 440
+ C. 600
+ D. 640
+ E. 800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiga bilangan membentuk suatu deret geometri. Jika hasil kalinya adalah 216 dan jumlahnya 26, maka rasio deret tersebut adalah . . . . 								 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 3 atau 1/3
+ B. 3 atau -1/3
+ C. 3 atau 1/2
+ D. 3 atau 2
+ E. 2 atau  1/2 </t>
+  </si>
+  <si>
+    <t>Berapa jumlah dari 13921238&amp;lt;sup&amp;gt;2&amp;lt;/sup&amp;gt; + 330?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Jawaban A B. Jawaban B C. Jawaban C D. Jawaban D E. Jawaban E </t>
+  </si>
+  <si>
+    <t>Jumlah simetri putar pada persegi adalah ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 2
+ B. 3 
+ C. 4    D.  </t>
+  </si>
+  <si>
+    <t>Nina memiliki sebuah bingkai foto dengan panjang 20cm dan lebar 10 cm. Berapakah keliling bingkai foto tersebut ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 30 cm
+ B. 40 cm
+ C. 60 cm  D.  </t>
+  </si>
+  <si>
+    <t>Saat ngabuburit, Yusni membaca buku. Yusni membaca dari pukul 16.00 sampai pukul 17. 30. Berapa lama Yusni membaca buku ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 1 jam 
+ B. 2 jam 
+ C. 1 jam 30 menit D.  </t>
+  </si>
+  <si>
+    <t>Sebuah persegi panjang memiliki panjang 7 cm dan lebar 4 cm. Berapakah keliling dari persegi panjang tersebut !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 11
+ B. 22 
+ C. 36    D.  </t>
+  </si>
+  <si>
+    <t>Sebuah segitiga diketahui memiliki sisi a =  8cm,  b = 7cm,  dan c = 5 cm. Berapakah keliling dari segitiga tersebut !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 20
+ B. 22
+ C. 24    D.  </t>
+  </si>
+  <si>
+    <t>Sudut adalah ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. Pertemuan dua garis 
+ B. Persimpangan garis 
+ C. Pertemuan tiga garis  D.  </t>
+  </si>
+  <si>
+    <t>Sudut yang besarannya tepat 180  derajat dinamakan dengan sudut ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. lurus
+ B. tumpul
+ C. siku siku  D.  </t>
+  </si>
+  <si>
+    <t>Bangun yang memiliki tiga sisi dan tiga sudut adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  persegi
+ B.  lingkaran
+ C.  segitiga
+ D.  persegi panjang </t>
+  </si>
+  <si>
+    <t>Bangun datar di samping memiliki panjang 15 cm dan luasnya 75 cm persegi, maka lebarnya adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 5 cm
+ B. 15 cm
+ C. 45 cm
+ D. 60 cm </t>
+  </si>
+  <si>
+    <t>Bangundatar yang memiliki dua buah sisi sama panjang yang saling berhadapan dibut bangun â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. persegi
+ B. segitiga
+ C. lingkaran
+ D. persegi panjang </t>
+  </si>
+  <si>
+    <t>Benda yang memiliki sudut siku- siku adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. gelas
+ B. botol
+ C. bola
+ D. meja </t>
+  </si>
+  <si>
+    <t>Buku tulis dengan panjang 25 cm dan lebar 17 cm memiliki keliling â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 60 cm
+ B. 66 cm
+ C. 73 cm
+ D. 84 cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data untuk soal nomor 19- 23       Berikut ini adalah data pekerjaan orang tua siswa kelas I sampai dengan kelas VI di sebuah Sekolah Dasar. Petani 25 0rang, nelayan 15 orang, penjahit 8 orang, wirausaha 13 orang, pedagang 12 orang, tentara 6 orang, polisi 2 orang, guru 6 orang, dan karyawan swasta 15 orang  </t>
+  </si>
+  <si>
+    <t>Jumlah siswa yang diteliti berdasarkan data tersebut adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  102 siswa
+ B.  110 siswa
+ C.  111 siswa
+ D.  113 siswa </t>
+  </si>
+  <si>
+    <t>Gambarkan sebuah sudut yang besarnya 45 derajat !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.  B. .
+ C. .
+ D.  </t>
+  </si>
+  <si>
+    <t>Jumlah pekerjaan orang tua siswa yang kurang dari 10 adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. petani, nelayan, dan penjahit
+ B. penjahit, wirausaha, dan pedagang
+ C. polisi, guru, dan pedagang
+ D. polisi, guru, dan penjahit </t>
+  </si>
+  <si>
+    <t>Jumlah siswa yang orang tuanya sebagai guru adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 2 siswa
+ B. 6 siswa
+ C. 15 siswa
+ D. 25 siswa </t>
+  </si>
+  <si>
+    <t>Keliling bangun persegi panjang dengan panjang 15 cm dan lebar 5 cm adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 20 cm
+ B. 30 cm
+ C. 40 cm
+ D. 45 cm </t>
+  </si>
+  <si>
+    <t>Keliling persegi yang panjang sisinya 35 cm adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 110 cm
+ B. 120 cm
+ C. 130 cm
+ D. 140 cm </t>
+  </si>
+  <si>
+    <t>Keliling sebuah karpet adalah 16 meter. Jika panjang karpet itu 5 meter, maka lebernya karpet adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 300 cm
+ B. 400 cm
+ C. 500 cm
+ D. 600 cm </t>
+  </si>
+  <si>
+    <t>Lambang pecahan empat pertujuh adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 2/7
+ B. 4/7
+ C. 3/4
+ D. 7/4 </t>
+  </si>
+  <si>
+    <t>Paling banyak pekerjaan orang tua sisiwa adalah sebagai â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. guru
+ B. petani
+ C. nelayan
+ D. pedagang </t>
+  </si>
+  <si>
+    <t>Panjang sisi persegi yang kelilingnya 112 cm adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 26 cm
+ B. 27 cm
+ C. 28 cm
+ D. 29 cm </t>
+  </si>
+  <si>
+    <t>Pecahan 2/9 mempunyai pembilang â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 2
+ B. 7
+ C. 9
+ D. 11 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perhatikan gambar berikut!  </t>
+  </si>
+  <si>
+    <t>bangun di samping disebut â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. trapesium
+ B. segi empat
+ C. persegi panjang
+ D. belah ketupat </t>
+  </si>
+  <si>
+    <t>Ruangan kelas IIIB berbentuk persegi yang panjang sisinya 5 meter, maka keliling kelas tersebut adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 10 meter
+ B. 20 meter
+ C. 25 meter
+ D. 30 meter </t>
+  </si>
+  <si>
+    <t>Rumus keliling persegi panjang yang berukuran panjang p dan lebar l adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 2p + 2l
+ B. 2p + l
+ C. P + 2l
+ D. P + l </t>
+  </si>
+  <si>
+    <t>Sebuah bangundatar persegi panjang memiliki panjang 25 cm dan lebar 6 cm, maka luas bangun tersebut adalah â€¦ cm persegi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 300 
+ B. 150
+ C. 62
+ D. 31 </t>
+  </si>
+  <si>
+    <t>Sebuah kolam ikan berbentuk persegi mempunyai luas 64 meter persegi. Berapakah panjang sisi kolam ikan tersebut ?</t>
+  </si>
+  <si>
+    <t>Sebuah persegi memiliki sisi 12 cm, maka keliling bangun tersebut adalah â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 48 cm
+ B. 36 cm
+ C. 24 cm
+ D. 12 cm </t>
+  </si>
+  <si>
+    <t>Sebuah sudut besarnya 75 derajat, maka sudut tersebut disebut sudut â€¦.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. lurus
+ B. lancip
+ C. tumpul
+ D. siku- siku </t>
+  </si>
+  <si>
+    <t>Sebuah taman bunga berbentuk persegi dengan ukuran sisinya 2 meter. Luas taman bunga itu adlah â€¦ meter persegi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A. 8
+ B. 6
+ C. 4
+ D. 2 </t>
+  </si>
+  <si>
+    <t>Suku ke-15 dari barisan 70, 61, 52, . . . adalah. . . .</t>
+  </si>
+  <si>
+    <t>Diketahui 2x, 4x + 1, dan 14 mempunyai tiga suku pertama suatu barisan aritmetika. Suku kesepuluh barisan tersebut adalah. . . .</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Jika bilangan 4, x, y, 141 2 , r membentuk barisan aritmetika, nilai r = . . .</t>
+  </si>
+  <si>
+    <t>Diberikan barisan bilangan 550, 505, 460, 415, . . . . bilangan pertama pada suku yang bernilai negatif adalah. . . .</t>
+  </si>
+  <si>
+    <t>Diberikan barisan bilangan turun -2, -8, -14, -20 Rumus suku ke-n barisan tersebut adalah . . . .</t>
+  </si>
+  <si>
+    <t>Pada awal bekerja. Pak Amat mempunyai gaji Rp2.000.000,00 per bulan. Tiap tahun gaji Pak Amat naik Rp150.000,00 per bulan. Berapa gaji Pak Amat setelah ia bekerja selama 7 tahun?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pada barisan berikut ini, manakah yang merupakan barisan aritmetika? </t>
+  </si>
+  <si>
+    <t>a. 15, 18, 21, 24, . . . . b. 8, -2, -12, -22, . . . . c. 2, 1 2 , 1 4 , 1 8 , . . . . d. 1 2 , 1 3 , 1 4 , 1 5 , . . . . e. a, ab, ab2 , ab3 , . . . . f. a, a + k2 , a + 2k 2 , a + 3k2 , . . . .</t>
+  </si>
+  <si>
+    <t>Jika a1, a2, a3, . . . . merupakan barisan aritmetika, buktikan: a. a2 = 𝑎1+𝑎3 2 b. a2 = 2𝑎1+𝑎4 3</t>
+  </si>
+  <si>
+    <t>Sisipkan beberapa bilangan di bawah ini agar membentuk barisan aritmetika. a. Tiga bilangan di antara 8 dan 60. b. Lima bilangan di antara -2 dan 16. c. Empat bilangan di antara 2 dan 12. d. Lima bilangan di antara 5 dan 50.</t>
+  </si>
+  <si>
+    <t>Suku ketiga dari deret aritmetika adalah 14. Jumlah suku kedua dan suku keenam adalah 34. Jumlah sepuluh suku pertama deret tersebut adalah . . . .</t>
+  </si>
+  <si>
+    <t>Jumlah suku ketiga dan suku ketujuh suatu deret aritmetika adalah 80 dan suku kesepuluh adalah 85. Rumus jumlah n suku pertama deret tersebut adalah</t>
+  </si>
+  <si>
+    <t>Diketahui deret bilangan 9 + 10 + 11 + 12 + . . . . + 101. Dari deret bilangan itu, jumlah bilangan yang habis dibagi 2 tetapi tidak habis dibagi 5 adalah . . . .</t>
+  </si>
+  <si>
+    <t>Seutas tali dengan panjang 246 cm dipotong menjadi 12 potong sehingga membentuk deret aritmetika. Jika jumlah 3 potong tali yang terpendek adalah 21 cm, tentukan panjang potongan yang terpanjang.</t>
+  </si>
+  <si>
+    <t>Dari suatu barisan geometri diketahui suku ketiga adalah 4 dan suku ketujuh adalah 324, suku keenam barisan itu adalah . . . .</t>
+  </si>
+  <si>
+    <t>Jika suku ke-2 barisan geometri adalah 6 dan suku ke-5 adalah 48, bilangan 6.144 merupakan suku ke- . . . .</t>
+  </si>
+  <si>
+    <t>Jika x, 2x + 2, dan 4x + 10 adalah tiga suku pertama dalam barisan geometri, suku ke-5 barisan tersebut adalah . . . .</t>
+  </si>
+  <si>
+    <t>Di antara barisan berikut, manakah yang merupakan barisan geometri?</t>
+  </si>
+  <si>
+    <t>a. 1 4 , 1, 4, 16, . . . . b. 1, - 1 2 , 1 4 , - 1 8 , . . . . c. 1 5 , 2 5 , 3 5 , 4 5 , . . . .</t>
+  </si>
+  <si>
+    <t>Diketahui jumlah tiga suku pertama barisan geometri dengan rasio bilangan bulat adalah 52. Jika hasil kali suku pertama dan suku ketiga adalah 144, jumlah tujuh suku pertama barisan geometri tersebut adalah . . . .</t>
+  </si>
+  <si>
+    <t>Jumlah tiga suku pertama barisan geometri adalah 112 dan suku ketujuh barisan tersebut adalah 1. Jumlah delapan suku pertama barisan tersebut adalah</t>
+  </si>
+  <si>
+    <t>Jumlah 4 suku pertama suatu deret geometri adalah 111 4 dan rasionya 1 2 . Tentukan suku pertama deret geometri tersebut.</t>
+  </si>
+  <si>
+    <t>Jumlah 50 suku pertama deret aritmetika 50 + 48 + 46 + . . . . adalah . . . .</t>
+  </si>
+  <si>
+    <t>Diketahui rumus suku ke-n barisan aritmetika adalah Un = 4n – 5. Jumlah 12 suku pertama barisan tersebut adalah . . . .</t>
+  </si>
+  <si>
+    <t>Diketahui deret aritmetika dengan jumlah suku ke-n, Sn = 3n 2 + 4n. Rumus suku ke-n adalah . . . .</t>
+  </si>
+  <si>
+    <t>Diketahui jumlah n suku pertama deret aritmetika -5 + (-1) + 3 + . . . . adalah 130. Tentukan nilai n yang memenuhi.</t>
+  </si>
+  <si>
+    <t>Jika diketahui jumlah n suku pertama deret aritmetika adalah 1 8 (32n – n 2 ). Hitunglah: a. Suku pertama, b. Suku keempat, c. Beda suku-sukunya.</t>
+  </si>
+  <si>
+    <t>Suku ke-9 dari barisan geometri 256, 384, 576, . . . . adalah . . . .</t>
+  </si>
+  <si>
+    <t>Jumlah 8 suku pertama deret geometri 1 2 + 3 2 + 9 2 + . . . . adalah . . . .</t>
+  </si>
+  <si>
+    <t>Jumlah semua suku pada deret geometri 4 9 + 4 3 + 4 + . . . . 108 adalah . . . .</t>
+  </si>
+  <si>
+    <t>Diketahui rumus suku ke-n barisan geometri adalah Un= 3n . Jumlah n suku pertama barisan tersebut adalah . . . .</t>
+  </si>
+  <si>
+    <t>Jumlah n suku pertama suatu deret geometri adalah 151 2 . Jika suku pertama dan suku kedua deret itu masing-masing adalah 8 dan 4, tentukan nilai n.</t>
+  </si>
+  <si>
+    <t>Jumlah n suku pertama suatu deret geometri adalah 93. Jika suku pertama</t>
+  </si>
+  <si>
+    <t>Hasil jumlah dari 4 + 2 + 1 + . . . . adalah . . . .</t>
+  </si>
+  <si>
+    <t>Diketahui jumlah deret geometri tak hingga adalah 125 8 dan suku ke-2 adalah 5 2 . rasio deret tersebut adalah . . . .</t>
+  </si>
+  <si>
+    <t>Jika suku pertama deret geometri tak hingga adalah a dan jumlah tak hingga deret tersebut adalah 16, nilai a yang memenuhi adalah . . . .</t>
+  </si>
+  <si>
+    <t>Sebuah bola dilemparkan vertikal ke atas setinggi 72 cm. Setiap sampai tanah, bola akan memantul kembali ke atas setinggi 3 4 kali tinggi semula, dan seterusnya. Berapa jarak yang ditempuh bola sampai berhenti?</t>
+  </si>
+  <si>
+    <t>Tentukan unsur yang ditanyakan pada jumlah deret geometri tak hingga berikut. a. a = 15, S∞ = 30, r = . . . . b. S∞ = 16, a = 4, r = . . . . c. S∞ = 4, r = 1 2 , a = . . . . d. S∞= -8, r = 2 3 , a = . . . .</t>
+  </si>
+  <si>
+    <t>Tiga suku pertama suatu barisan geometri adalah x + 26, x + 2, x – 6. Tentukan: a. Nilai x, b. Rasio, c. Jumlah sampai tak hingga.</t>
+  </si>
+  <si>
+    <t>Nyatakanlah setiap pecahan desimal berikut ke pecahan biasa a. 0,777 . . . . b. 0,333 . . . . c. 0,232323 . . . . d. 0,272727 . . . .</t>
+  </si>
+  <si>
+    <t>Suatu deret geometri suku pertamanya 1 dan rasionya r. Jika enam kali jumlah tiga suku pertama adalah tujuh kali jumlah dua suku pertama, tentukan nilai r yang mungkin. Untuk setiap r, hitunglah jumlah deret itu sampai tak hingga.</t>
   </si>
 </sst>
 </file>
@@ -5848,7 +7245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5895,9 +7292,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6212,20 +7636,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0721E6D-7C05-4701-825D-DC8B003C20EA}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.77734375" defaultRowHeight="22.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="27" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6245,7 +7670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>1202</v>
       </c>
@@ -6255,14 +7680,14 @@
       <c r="C2" s="16" t="s">
         <v>1220</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>681</v>
       </c>
@@ -6272,14 +7697,14 @@
       <c r="C3" s="17" t="s">
         <v>1221</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>681</v>
       </c>
@@ -6289,14 +7714,14 @@
       <c r="C4" s="16" t="s">
         <v>1222</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>681</v>
       </c>
@@ -6306,14 +7731,14 @@
       <c r="C5" s="17" t="s">
         <v>1223</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="25" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>1207</v>
       </c>
@@ -6323,14 +7748,14 @@
       <c r="C6" s="16" t="s">
         <v>1224</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>681</v>
       </c>
@@ -6340,14 +7765,14 @@
       <c r="C7" s="17" t="s">
         <v>1225</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>681</v>
       </c>
@@ -6357,14 +7782,14 @@
       <c r="C8" s="16" t="s">
         <v>1226</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>1211</v>
       </c>
@@ -6374,14 +7799,14 @@
       <c r="C9" s="17" t="s">
         <v>1227</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="25" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>1213</v>
       </c>
@@ -6391,14 +7816,14 @@
       <c r="C10" s="16" t="s">
         <v>1228</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>1215</v>
       </c>
@@ -6408,14 +7833,14 @@
       <c r="C11" s="17" t="s">
         <v>1229</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>681</v>
       </c>
@@ -6425,14 +7850,14 @@
       <c r="C12" s="16" t="s">
         <v>1230</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>681</v>
       </c>
@@ -6442,14 +7867,14 @@
       <c r="C13" s="17" t="s">
         <v>1231</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>681</v>
       </c>
@@ -6459,336 +7884,336 @@
       <c r="C14" s="16" t="s">
         <v>1232</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>1233</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>1234</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="26" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
         <v>1235</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>1236</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>1237</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>1238</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="17" t="s">
         <v>1239</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>1240</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>1241</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>1242</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>1243</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>1244</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>1245</v>
       </c>
       <c r="C21" s="16" t="s">
         <v>1246</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
         <v>1247</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>1240</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="25" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>1248</v>
       </c>
       <c r="C23" s="16" t="s">
         <v>1249</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
         <v>1250</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>1240</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>1251</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>1240</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="23" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>1252</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>1253</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
         <v>1254</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>1255</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>1256</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>1240</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="17" t="s">
         <v>1257</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>1246</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
         <v>1258</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>1259</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
         <v>1260</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>1261</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
         <v>1262</v>
       </c>
       <c r="C32" s="16" t="s">
         <v>1263</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
         <v>1264</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>1265</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>1266</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>1267</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="17" t="s">
         <v>1268</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>1240</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>1269</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>1270</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="17" t="s">
         <v>1271</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>1272</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>681</v>
       </c>
@@ -6798,14 +8223,14 @@
       <c r="C38" s="17" t="s">
         <v>1274</v>
       </c>
-      <c r="D38" s="17" t="s">
+      <c r="D38" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>1275</v>
       </c>
@@ -6815,14 +8240,14 @@
       <c r="C39" s="16" t="s">
         <v>1277</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="23" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>1278</v>
       </c>
@@ -6832,11 +8257,446 @@
       <c r="C40" s="17" t="s">
         <v>1280</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="25" t="s">
         <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D48" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D67" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D70" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D71" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D75" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D79" s="27" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -6848,16 +8708,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FDDDBA-7BE6-43BC-A6BD-AAD739BA0F06}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="18.44140625" customWidth="1"/>
+    <col min="1" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6877,7 +8737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -6890,11 +8750,14 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
       <c r="F2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>214</v>
       </c>
@@ -6907,11 +8770,14 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
       <c r="F3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6924,11 +8790,14 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
       <c r="F4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>219</v>
       </c>
@@ -6941,11 +8810,14 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
       <c r="F5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -6958,11 +8830,14 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
       <c r="F6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>239</v>
       </c>
@@ -6975,11 +8850,14 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
+      <c r="E7" t="s">
+        <v>298</v>
+      </c>
       <c r="F7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>242</v>
       </c>
@@ -6992,11 +8870,14 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
+      <c r="E8" t="s">
+        <v>298</v>
+      </c>
       <c r="F8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>245</v>
       </c>
@@ -7009,11 +8890,14 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
+      <c r="E9" t="s">
+        <v>314</v>
+      </c>
       <c r="F9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>248</v>
       </c>
@@ -7026,11 +8910,14 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
       <c r="F10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>251</v>
       </c>
@@ -7043,11 +8930,14 @@
       <c r="D11" t="s">
         <v>7</v>
       </c>
+      <c r="E11" t="s">
+        <v>313</v>
+      </c>
       <c r="F11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>254</v>
       </c>
@@ -7067,7 +8957,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>257</v>
       </c>
@@ -7080,11 +8970,14 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>260</v>
       </c>
@@ -7097,11 +8990,14 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
       <c r="F14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>263</v>
       </c>
@@ -7114,11 +9010,14 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
+      <c r="E15" t="s">
+        <v>314</v>
+      </c>
       <c r="F15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>266</v>
       </c>
@@ -7131,11 +9030,14 @@
       <c r="D16" t="s">
         <v>8</v>
       </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
       <c r="F16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>269</v>
       </c>
@@ -7148,11 +9050,14 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
       <c r="F17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -7172,7 +9077,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -7192,7 +9097,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>276</v>
       </c>
@@ -7205,11 +9110,14 @@
       <c r="D20" t="s">
         <v>9</v>
       </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
       <c r="F20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>279</v>
       </c>
@@ -7229,7 +9137,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>282</v>
       </c>
@@ -7239,11 +9147,14 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
       <c r="F22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>284</v>
       </c>
@@ -7260,7 +9171,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>286</v>
       </c>
@@ -7273,11 +9184,14 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
       <c r="F24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>289</v>
       </c>
@@ -7290,11 +9204,14 @@
       <c r="D25" t="s">
         <v>9</v>
       </c>
+      <c r="E25" t="s">
+        <v>313</v>
+      </c>
       <c r="F25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>292</v>
       </c>
@@ -7307,11 +9224,14 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
+      <c r="E26" t="s">
+        <v>313</v>
+      </c>
       <c r="F26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -7324,11 +9244,14 @@
       <c r="D27" t="s">
         <v>9</v>
       </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
       <c r="F27" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>317</v>
       </c>
@@ -7341,11 +9264,14 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
+      <c r="E28" t="s">
+        <v>79</v>
+      </c>
       <c r="F28" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>320</v>
       </c>
@@ -7358,11 +9284,14 @@
       <c r="D29" t="s">
         <v>9</v>
       </c>
+      <c r="E29" t="s">
+        <v>313</v>
+      </c>
       <c r="F29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>323</v>
       </c>
@@ -7375,11 +9304,14 @@
       <c r="D30" t="s">
         <v>7</v>
       </c>
+      <c r="E30" t="s">
+        <v>313</v>
+      </c>
       <c r="F30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>326</v>
       </c>
@@ -7399,7 +9331,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>329</v>
       </c>
@@ -7412,11 +9344,14 @@
       <c r="D32" t="s">
         <v>9</v>
       </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
       <c r="F32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>326</v>
       </c>
@@ -7446,17 +9381,17 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7476,7 +9411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -7496,7 +9431,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -7516,7 +9451,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>230</v>
       </c>
@@ -7536,7 +9471,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>233</v>
       </c>
@@ -7556,7 +9491,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>236</v>
       </c>
@@ -7576,7 +9511,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>295</v>
       </c>
@@ -7596,7 +9531,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>299</v>
       </c>
@@ -7616,7 +9551,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>302</v>
       </c>
@@ -7633,7 +9568,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>304</v>
       </c>
@@ -7653,7 +9588,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>307</v>
       </c>
@@ -7673,7 +9608,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>310</v>
       </c>
@@ -7703,17 +9638,17 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7733,7 +9668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>410</v>
       </c>
@@ -7753,7 +9688,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>413</v>
       </c>
@@ -7770,7 +9705,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>414</v>
       </c>
@@ -7790,7 +9725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>417</v>
       </c>
@@ -7810,7 +9745,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>420</v>
       </c>
@@ -7830,7 +9765,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>420</v>
       </c>
@@ -7850,7 +9785,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>420</v>
       </c>
@@ -7870,7 +9805,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>427</v>
       </c>
@@ -7887,7 +9822,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>420</v>
       </c>
@@ -7907,7 +9842,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>431</v>
       </c>
@@ -7927,7 +9862,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>434</v>
       </c>
@@ -7944,7 +9879,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>420</v>
       </c>
@@ -7964,7 +9899,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>437</v>
       </c>
@@ -7984,7 +9919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>440</v>
       </c>
@@ -8001,7 +9936,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -8018,7 +9953,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>444</v>
       </c>
@@ -8035,7 +9970,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>447</v>
       </c>
@@ -8049,7 +9984,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>449</v>
       </c>
@@ -8066,7 +10001,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -8083,7 +10018,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>381</v>
       </c>
@@ -8100,7 +10035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>544</v>
       </c>
@@ -8114,7 +10049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>546</v>
       </c>
@@ -8131,7 +10066,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>549</v>
       </c>
@@ -8148,7 +10083,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>552</v>
       </c>
@@ -8165,7 +10100,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>555</v>
       </c>
@@ -8179,7 +10114,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>557</v>
       </c>
@@ -8203,15 +10138,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB29A854-72C8-4A98-85EF-AFE15513E655}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8229,6 +10169,1075 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="16" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="16" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -8238,15 +11247,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{753DF962-684E-41AD-A09C-76FF210479FD}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="27"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8264,6 +11279,1093 @@
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -8279,16 +12381,16 @@
       <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="6"/>
-    <col min="6" max="6" width="18.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="18.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8308,7 +12410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>571</v>
       </c>
@@ -8328,7 +12430,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>574</v>
       </c>
@@ -8348,7 +12450,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>577</v>
       </c>
@@ -8368,7 +12470,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>580</v>
       </c>
@@ -8388,7 +12490,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>583</v>
       </c>
@@ -8408,7 +12510,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>586</v>
       </c>
@@ -8428,7 +12530,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>589</v>
       </c>
@@ -8448,7 +12550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>592</v>
       </c>
@@ -8468,7 +12570,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>595</v>
       </c>
@@ -8488,7 +12590,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>598</v>
       </c>
@@ -8505,7 +12607,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>599</v>
       </c>
@@ -8525,7 +12627,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>602</v>
       </c>
@@ -8545,7 +12647,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>605</v>
       </c>
@@ -8565,7 +12667,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>608</v>
       </c>
@@ -8585,7 +12687,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>611</v>
       </c>
@@ -8605,7 +12707,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>614</v>
       </c>
@@ -8625,7 +12727,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>617</v>
       </c>
@@ -8645,7 +12747,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>620</v>
       </c>
@@ -8665,7 +12767,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>623</v>
       </c>
@@ -8685,7 +12787,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>625</v>
       </c>
@@ -8705,7 +12807,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>628</v>
       </c>
@@ -8722,7 +12824,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>630</v>
       </c>
@@ -8739,7 +12841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>632</v>
       </c>
@@ -8759,7 +12861,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>634</v>
       </c>
@@ -8779,7 +12881,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>637</v>
       </c>
@@ -8799,7 +12901,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>640</v>
       </c>
@@ -8816,7 +12918,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>644</v>
       </c>
@@ -8836,7 +12938,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>643</v>
       </c>
@@ -8856,7 +12958,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>646</v>
       </c>
@@ -8876,7 +12978,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>649</v>
       </c>
@@ -8896,7 +12998,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>652</v>
       </c>
@@ -8916,7 +13018,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>655</v>
       </c>
@@ -8936,7 +13038,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>658</v>
       </c>
@@ -8956,7 +13058,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>661</v>
       </c>
@@ -8973,7 +13075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>663</v>
       </c>
@@ -8993,7 +13095,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>666</v>
       </c>
@@ -9013,7 +13115,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>669</v>
       </c>
@@ -9033,7 +13135,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>672</v>
       </c>
@@ -9050,7 +13152,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>674</v>
       </c>
@@ -9070,7 +13172,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>677</v>
       </c>
@@ -9090,7 +13192,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>681</v>
       </c>
@@ -9110,7 +13212,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>681</v>
       </c>
@@ -9130,7 +13232,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>915</v>
       </c>
@@ -9150,7 +13252,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>1148</v>
       </c>
@@ -9170,7 +13272,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>681</v>
       </c>
@@ -9187,7 +13289,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>681</v>
       </c>
@@ -9207,7 +13309,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>681</v>
       </c>
@@ -9227,7 +13329,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>922</v>
       </c>
@@ -9247,7 +13349,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>681</v>
       </c>
@@ -9267,7 +13369,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>925</v>
       </c>
@@ -9287,7 +13389,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>681</v>
       </c>
@@ -9304,7 +13406,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>681</v>
       </c>
@@ -9324,7 +13426,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>681</v>
       </c>
@@ -9344,7 +13446,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>681</v>
       </c>
@@ -9364,7 +13466,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>1156</v>
       </c>
@@ -9384,7 +13486,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>681</v>
       </c>
@@ -9404,7 +13506,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>681</v>
       </c>
@@ -9424,7 +13526,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>681</v>
       </c>
@@ -9444,7 +13546,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>931</v>
       </c>
@@ -9464,7 +13566,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>1161</v>
       </c>
@@ -9484,7 +13586,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>681</v>
       </c>
@@ -9504,7 +13606,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>681</v>
       </c>
@@ -9524,7 +13626,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>936</v>
       </c>
@@ -9544,7 +13646,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>938</v>
       </c>
@@ -9564,7 +13666,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>939</v>
       </c>
@@ -9584,7 +13686,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>681</v>
       </c>
@@ -9604,7 +13706,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>942</v>
       </c>
@@ -9624,7 +13726,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>944</v>
       </c>
@@ -9644,7 +13746,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>681</v>
       </c>
@@ -9664,7 +13766,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>681</v>
       </c>
@@ -9684,7 +13786,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>681</v>
       </c>
@@ -9704,7 +13806,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>1182</v>
       </c>
@@ -9724,7 +13826,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>681</v>
       </c>
@@ -9744,7 +13846,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>681</v>
       </c>
@@ -9764,7 +13866,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>681</v>
       </c>
@@ -9784,7 +13886,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>681</v>
       </c>
@@ -9804,7 +13906,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>681</v>
       </c>
@@ -9824,7 +13926,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>681</v>
       </c>
@@ -9844,7 +13946,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>681</v>
       </c>
@@ -9861,7 +13963,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>681</v>
       </c>
@@ -9881,7 +13983,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>681</v>
       </c>
@@ -9901,7 +14003,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>681</v>
       </c>
@@ -9921,7 +14023,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>681</v>
       </c>
@@ -9941,7 +14043,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>681</v>
       </c>
@@ -9961,7 +14063,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>962</v>
       </c>
@@ -9981,7 +14083,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>964</v>
       </c>
@@ -10001,7 +14103,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>681</v>
       </c>
@@ -10021,7 +14123,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>966</v>
       </c>
@@ -10041,7 +14143,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>968</v>
       </c>
@@ -10061,7 +14163,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>681</v>
       </c>
@@ -10095,15 +14197,15 @@
       <selection activeCell="A2" sqref="A2:F73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="6"/>
-    <col min="6" max="6" width="18.109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="18.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10123,7 +14225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>681</v>
       </c>
@@ -10143,7 +14245,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>681</v>
       </c>
@@ -10163,7 +14265,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>681</v>
       </c>
@@ -10183,7 +14285,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>681</v>
       </c>
@@ -10203,7 +14305,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>681</v>
       </c>
@@ -10223,7 +14325,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>681</v>
       </c>
@@ -10243,7 +14345,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>681</v>
       </c>
@@ -10263,7 +14365,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>681</v>
       </c>
@@ -10283,7 +14385,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>681</v>
       </c>
@@ -10303,7 +14405,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>681</v>
       </c>
@@ -10323,7 +14425,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>681</v>
       </c>
@@ -10343,7 +14445,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>681</v>
       </c>
@@ -10363,7 +14465,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>681</v>
       </c>
@@ -10383,7 +14485,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>681</v>
       </c>
@@ -10403,7 +14505,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>681</v>
       </c>
@@ -10423,7 +14525,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>999</v>
       </c>
@@ -10443,7 +14545,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1002</v>
       </c>
@@ -10463,7 +14565,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>681</v>
       </c>
@@ -10483,7 +14585,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>681</v>
       </c>
@@ -10503,7 +14605,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>1009</v>
       </c>
@@ -10523,7 +14625,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>1012</v>
       </c>
@@ -10543,7 +14645,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>681</v>
       </c>
@@ -10563,7 +14665,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>1017</v>
       </c>
@@ -10583,7 +14685,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>1020</v>
       </c>
@@ -10603,7 +14705,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>1023</v>
       </c>
@@ -10623,7 +14725,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>1026</v>
       </c>
@@ -10643,7 +14745,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>1026</v>
       </c>
@@ -10663,7 +14765,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>1031</v>
       </c>
@@ -10683,7 +14785,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>1034</v>
       </c>
@@ -10703,7 +14805,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>1037</v>
       </c>
@@ -10723,7 +14825,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>1037</v>
       </c>
@@ -10743,7 +14845,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>1042</v>
       </c>
@@ -10763,7 +14865,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>1042</v>
       </c>
@@ -10783,7 +14885,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>1042</v>
       </c>
@@ -10803,7 +14905,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>1049</v>
       </c>
@@ -10823,7 +14925,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>1049</v>
       </c>
@@ -10843,7 +14945,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>1054</v>
       </c>
@@ -10863,7 +14965,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>1054</v>
       </c>
@@ -10883,7 +14985,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>1059</v>
       </c>
@@ -10903,7 +15005,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>1062</v>
       </c>
@@ -10923,7 +15025,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>1062</v>
       </c>
@@ -10943,7 +15045,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>1065</v>
       </c>
@@ -10963,7 +15065,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>1065</v>
       </c>
@@ -10983,7 +15085,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>681</v>
       </c>
@@ -11003,7 +15105,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>681</v>
       </c>
@@ -11023,7 +15125,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>681</v>
       </c>
@@ -11043,7 +15145,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>681</v>
       </c>
@@ -11063,7 +15165,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>1074</v>
       </c>
@@ -11083,7 +15185,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>1077</v>
       </c>
@@ -11103,7 +15205,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>1080</v>
       </c>
@@ -11123,7 +15225,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>1088</v>
       </c>
@@ -11143,7 +15245,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>681</v>
       </c>
@@ -11163,7 +15265,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>681</v>
       </c>
@@ -11183,7 +15285,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>1095</v>
       </c>
@@ -11203,7 +15305,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>1098</v>
       </c>
@@ -11223,7 +15325,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>1101</v>
       </c>
@@ -11243,7 +15345,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>681</v>
       </c>
@@ -11263,7 +15365,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>1104</v>
       </c>
@@ -11283,7 +15385,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>681</v>
       </c>
@@ -11303,7 +15405,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>1109</v>
       </c>
@@ -11323,7 +15425,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>1112</v>
       </c>
@@ -11343,7 +15445,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>681</v>
       </c>
@@ -11363,7 +15465,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>1117</v>
       </c>
@@ -11383,7 +15485,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>1120</v>
       </c>
@@ -11403,7 +15505,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>1123</v>
       </c>
@@ -11423,7 +15525,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>1126</v>
       </c>
@@ -11443,7 +15545,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>1129</v>
       </c>
@@ -11463,7 +15565,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>1132</v>
       </c>
@@ -11483,7 +15585,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>1135</v>
       </c>
@@ -11503,7 +15605,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>1138</v>
       </c>
@@ -11523,7 +15625,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>1141</v>
       </c>
@@ -11543,7 +15645,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>1144</v>
       </c>
@@ -11576,16 +15678,16 @@
       <selection activeCell="A2" sqref="A2:F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="6"/>
-    <col min="6" max="6" width="18.44140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="18.42578125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11605,7 +15707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>680</v>
       </c>
@@ -11625,7 +15727,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>681</v>
       </c>
@@ -11645,7 +15747,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>681</v>
       </c>
@@ -11665,7 +15767,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>681</v>
       </c>
@@ -11685,7 +15787,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>681</v>
       </c>
@@ -11705,7 +15807,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>681</v>
       </c>
@@ -11725,7 +15827,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>682</v>
       </c>
@@ -11745,7 +15847,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>683</v>
       </c>
@@ -11765,7 +15867,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>681</v>
       </c>
@@ -11785,7 +15887,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>681</v>
       </c>
@@ -11805,7 +15907,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>681</v>
       </c>
@@ -11822,7 +15924,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>681</v>
       </c>
@@ -11842,7 +15944,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>681</v>
       </c>
@@ -11862,7 +15964,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>681</v>
       </c>
@@ -11882,7 +15984,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>681</v>
       </c>
@@ -11902,7 +16004,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>681</v>
       </c>
@@ -11922,7 +16024,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>681</v>
       </c>
@@ -11942,7 +16044,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>681</v>
       </c>
@@ -11962,7 +16064,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>681</v>
       </c>
@@ -11982,7 +16084,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>681</v>
       </c>
@@ -12002,7 +16104,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>681</v>
       </c>
@@ -12022,7 +16124,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>681</v>
       </c>
@@ -12042,7 +16144,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>681</v>
       </c>
@@ -12062,7 +16164,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>681</v>
       </c>
@@ -12082,7 +16184,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>681</v>
       </c>
@@ -12102,7 +16204,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>681</v>
       </c>
@@ -12122,7 +16224,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>681</v>
       </c>
@@ -12142,7 +16244,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>681</v>
       </c>
@@ -12162,7 +16264,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>681</v>
       </c>
@@ -12182,7 +16284,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>681</v>
       </c>
@@ -12202,7 +16304,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>681</v>
       </c>
@@ -12222,7 +16324,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>681</v>
       </c>
@@ -12242,7 +16344,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>681</v>
       </c>
@@ -12262,7 +16364,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>681</v>
       </c>
@@ -12282,7 +16384,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>681</v>
       </c>
@@ -12302,7 +16404,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>681</v>
       </c>
@@ -12322,7 +16424,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>681</v>
       </c>
@@ -12342,7 +16444,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>681</v>
       </c>
@@ -12362,7 +16464,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>684</v>
       </c>
@@ -12382,7 +16484,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>681</v>
       </c>
@@ -12402,7 +16504,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>685</v>
       </c>
@@ -12422,7 +16524,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>686</v>
       </c>
@@ -12442,7 +16544,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>687</v>
       </c>
@@ -12462,7 +16564,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>681</v>
       </c>
@@ -12482,7 +16584,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>681</v>
       </c>
@@ -12502,7 +16604,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>681</v>
       </c>
@@ -12522,7 +16624,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>681</v>
       </c>
@@ -12542,7 +16644,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>681</v>
       </c>
@@ -12562,7 +16664,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>681</v>
       </c>
@@ -12582,7 +16684,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>681</v>
       </c>
@@ -12602,7 +16704,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>792</v>
       </c>
@@ -12622,7 +16724,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>795</v>
       </c>
@@ -12642,7 +16744,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>798</v>
       </c>
@@ -12662,7 +16764,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>801</v>
       </c>
@@ -12682,7 +16784,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>804</v>
       </c>
@@ -12702,7 +16804,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>807</v>
       </c>
@@ -12722,7 +16824,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>810</v>
       </c>
@@ -12742,7 +16844,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>813</v>
       </c>
@@ -12762,7 +16864,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>681</v>
       </c>
@@ -12782,7 +16884,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>681</v>
       </c>
@@ -12802,7 +16904,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>681</v>
       </c>
@@ -12822,7 +16924,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>822</v>
       </c>
@@ -12842,7 +16944,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>825</v>
       </c>
@@ -12862,7 +16964,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>681</v>
       </c>
@@ -12882,7 +16984,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>681</v>
       </c>
@@ -12902,7 +17004,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>681</v>
       </c>
@@ -12922,7 +17024,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>681</v>
       </c>
@@ -12942,7 +17044,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>681</v>
       </c>
@@ -12962,7 +17064,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>681</v>
       </c>
@@ -12982,7 +17084,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>681</v>
       </c>
@@ -13002,7 +17104,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>681</v>
       </c>
@@ -13022,7 +17124,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>681</v>
       </c>
@@ -13042,7 +17144,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>681</v>
       </c>
@@ -13062,7 +17164,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>681</v>
       </c>
@@ -13082,7 +17184,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>681</v>
       </c>
@@ -13102,7 +17204,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>681</v>
       </c>
@@ -13122,7 +17224,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>852</v>
       </c>
@@ -13142,7 +17244,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>681</v>
       </c>
@@ -13162,7 +17264,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>681</v>
       </c>
@@ -13182,7 +17284,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>681</v>
       </c>
@@ -13202,7 +17304,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>859</v>
       </c>
@@ -13222,7 +17324,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>862</v>
       </c>
@@ -13242,7 +17344,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>681</v>
       </c>
@@ -13262,7 +17364,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>867</v>
       </c>
@@ -13282,7 +17384,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>870</v>
       </c>
@@ -13302,7 +17404,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>681</v>
       </c>
@@ -13322,7 +17424,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>681</v>
       </c>
@@ -13342,7 +17444,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>681</v>
       </c>
@@ -13362,7 +17464,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>681</v>
       </c>
@@ -13382,7 +17484,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>681</v>
       </c>
@@ -13402,7 +17504,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>681</v>
       </c>
@@ -13422,7 +17524,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>681</v>
       </c>
@@ -13442,7 +17544,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>681</v>
       </c>
@@ -13462,7 +17564,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>681</v>
       </c>
@@ -13482,7 +17584,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>681</v>
       </c>
@@ -13502,7 +17604,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>681</v>
       </c>
@@ -13522,7 +17624,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>681</v>
       </c>
@@ -13542,7 +17644,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>681</v>
       </c>
@@ -13562,7 +17664,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>681</v>
       </c>
@@ -13591,20 +17693,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E25D538-4F4B-4C0B-8750-97F4E78136A7}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="5" customWidth="1"/>
-    <col min="4" max="5" width="9.109375" style="6"/>
-    <col min="6" max="8" width="9.109375" style="5"/>
+    <col min="1" max="1" width="20.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="6"/>
+    <col min="6" max="8" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13624,7 +17726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -13644,7 +17746,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -13664,7 +17766,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
@@ -13681,7 +17783,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -13701,7 +17803,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
@@ -13721,7 +17823,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -13741,7 +17843,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
@@ -13758,7 +17860,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
@@ -13775,7 +17877,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -13795,7 +17897,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -13815,7 +17917,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
@@ -13835,7 +17937,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -13855,7 +17957,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>44</v>
       </c>
@@ -13875,7 +17977,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -13895,7 +17997,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -13915,7 +18017,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>53</v>
       </c>
@@ -13935,7 +18037,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>56</v>
       </c>
@@ -13952,7 +18054,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>58</v>
       </c>
@@ -13969,7 +18071,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>59</v>
       </c>
@@ -13986,7 +18088,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>62</v>
       </c>
@@ -14006,7 +18108,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>65</v>
       </c>
@@ -14020,7 +18122,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>379</v>
       </c>
@@ -14037,7 +18139,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>69</v>
       </c>
@@ -14051,7 +18153,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>381</v>
       </c>
@@ -14068,7 +18170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>73</v>
       </c>
@@ -14082,7 +18184,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>383</v>
       </c>
@@ -14099,7 +18201,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>76</v>
       </c>
@@ -14113,7 +18215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>385</v>
       </c>
@@ -14130,7 +18232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>80</v>
       </c>
@@ -14144,7 +18246,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>387</v>
       </c>
@@ -14161,7 +18263,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>83</v>
       </c>
@@ -14175,7 +18277,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>85</v>
       </c>
@@ -14189,7 +18291,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>87</v>
       </c>
@@ -14203,7 +18305,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>377</v>
       </c>
@@ -14220,7 +18322,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>389</v>
       </c>
@@ -14237,7 +18339,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>91</v>
       </c>
@@ -14251,7 +18353,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>391</v>
       </c>
@@ -14268,7 +18370,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>395</v>
       </c>
@@ -14285,7 +18387,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>393</v>
       </c>
@@ -14302,7 +18404,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>96</v>
       </c>
@@ -14316,7 +18418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>396</v>
       </c>
@@ -14339,7 +18441,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>399</v>
       </c>
@@ -14359,7 +18461,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>403</v>
       </c>
@@ -14379,7 +18481,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>405</v>
       </c>
@@ -14402,7 +18504,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>408</v>
       </c>
@@ -14429,19 +18531,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F5154C-15D6-451D-B6E6-85A32715717E}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14461,7 +18563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
@@ -14481,7 +18583,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>102</v>
       </c>
@@ -14491,11 +18593,14 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
+      <c r="E3" t="s">
+        <v>298</v>
+      </c>
       <c r="F3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>105</v>
       </c>
@@ -14512,7 +18617,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>111</v>
       </c>
@@ -14525,11 +18630,14 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>109</v>
       </c>
@@ -14542,11 +18650,14 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
+      <c r="E6" t="s">
+        <v>313</v>
+      </c>
       <c r="F6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>114</v>
       </c>
@@ -14559,11 +18670,14 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
       <c r="F7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>117</v>
       </c>
@@ -14573,11 +18687,14 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
       <c r="F8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>119</v>
       </c>
@@ -14590,11 +18707,14 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
       <c r="F9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>122</v>
       </c>
@@ -14607,11 +18727,14 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
+      <c r="E10" t="s">
+        <v>313</v>
+      </c>
       <c r="F10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>125</v>
       </c>
@@ -14624,11 +18747,14 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
+      <c r="E11" t="s">
+        <v>313</v>
+      </c>
       <c r="F11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>128</v>
       </c>
@@ -14638,11 +18764,14 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
+      <c r="E12" t="s">
+        <v>314</v>
+      </c>
       <c r="F12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>130</v>
       </c>
@@ -14659,7 +18788,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>132</v>
       </c>
@@ -14669,11 +18798,14 @@
       <c r="D14" t="s">
         <v>6</v>
       </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
       <c r="F14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -14686,11 +18818,14 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
       <c r="F15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>137</v>
       </c>
@@ -14700,11 +18835,14 @@
       <c r="D16" t="s">
         <v>6</v>
       </c>
+      <c r="E16" t="s">
+        <v>298</v>
+      </c>
       <c r="F16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>139</v>
       </c>
@@ -14721,7 +18859,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -14734,11 +18872,14 @@
       <c r="D18" t="s">
         <v>8</v>
       </c>
+      <c r="E18" t="s">
+        <v>298</v>
+      </c>
       <c r="F18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>144</v>
       </c>
@@ -14751,11 +18892,14 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
       <c r="F19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>147</v>
       </c>
@@ -14768,11 +18912,14 @@
       <c r="D20" t="s">
         <v>9</v>
       </c>
+      <c r="E20" t="s">
+        <v>313</v>
+      </c>
       <c r="F20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>151</v>
       </c>
@@ -14782,11 +18929,14 @@
       <c r="D21" t="s">
         <v>10</v>
       </c>
+      <c r="E21" t="s">
+        <v>313</v>
+      </c>
       <c r="F21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>362</v>
       </c>
@@ -14806,7 +18956,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>365</v>
       </c>
@@ -14826,7 +18976,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>368</v>
       </c>
@@ -14846,7 +18996,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>371</v>
       </c>
@@ -14863,7 +19013,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>373</v>
       </c>
@@ -14883,7 +19033,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>455</v>
       </c>
@@ -14900,7 +19050,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>456</v>
       </c>
@@ -14917,7 +19067,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>460</v>
       </c>
@@ -14934,7 +19084,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>463</v>
       </c>
@@ -14948,7 +19098,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>465</v>
       </c>
@@ -14968,7 +19118,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>468</v>
       </c>
@@ -14985,7 +19135,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>471</v>
       </c>
@@ -15002,7 +19152,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>474</v>
       </c>
@@ -15022,7 +19172,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>478</v>
       </c>
@@ -15039,7 +19189,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>481</v>
       </c>
@@ -15056,7 +19206,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>484</v>
       </c>
@@ -15073,7 +19223,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>420</v>
       </c>
@@ -15090,7 +19240,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>489</v>
       </c>
@@ -15104,7 +19254,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>491</v>
       </c>
@@ -15121,7 +19271,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>494</v>
       </c>
@@ -15147,17 +19297,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5992480-332C-4A20-A071-EB6B406AED48}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.9" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15177,7 +19327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -15190,11 +19340,14 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>313</v>
+      </c>
       <c r="F2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -15207,11 +19360,14 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
       <c r="F3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -15224,11 +19380,14 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
+      <c r="E4" t="s">
+        <v>313</v>
+      </c>
       <c r="F4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -15241,11 +19400,14 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
       <c r="F5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>164</v>
       </c>
@@ -15258,11 +19420,14 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
+      <c r="E6" t="s">
+        <v>298</v>
+      </c>
       <c r="F6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -15275,11 +19440,14 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
       <c r="F7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -15292,11 +19460,14 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
+      <c r="E8" t="s">
+        <v>298</v>
+      </c>
       <c r="F8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -15309,11 +19480,14 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
       <c r="F9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -15326,11 +19500,14 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
       <c r="F10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>179</v>
       </c>
@@ -15343,11 +19520,14 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
+      <c r="E11" t="s">
+        <v>298</v>
+      </c>
       <c r="F11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -15360,11 +19540,14 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
       <c r="F12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>185</v>
       </c>
@@ -15377,11 +19560,14 @@
       <c r="D13" t="s">
         <v>9</v>
       </c>
+      <c r="E13" t="s">
+        <v>313</v>
+      </c>
       <c r="F13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -15394,11 +19580,14 @@
       <c r="D14" t="s">
         <v>8</v>
       </c>
+      <c r="E14" t="s">
+        <v>298</v>
+      </c>
       <c r="F14" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>191</v>
       </c>
@@ -15411,11 +19600,14 @@
       <c r="D15" t="s">
         <v>9</v>
       </c>
+      <c r="E15" t="s">
+        <v>298</v>
+      </c>
       <c r="F15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>194</v>
       </c>
@@ -15435,7 +19627,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>197</v>
       </c>
@@ -15448,11 +19640,14 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
       <c r="F17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>200</v>
       </c>
@@ -15465,11 +19660,14 @@
       <c r="D18" t="s">
         <v>9</v>
       </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
       <c r="F18" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>203</v>
       </c>
@@ -15482,11 +19680,14 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
+      <c r="E19" t="s">
+        <v>313</v>
+      </c>
       <c r="F19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -15499,11 +19700,14 @@
       <c r="D20" t="s">
         <v>9</v>
       </c>
+      <c r="E20" t="s">
+        <v>298</v>
+      </c>
       <c r="F20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>208</v>
       </c>
@@ -15516,11 +19720,14 @@
       <c r="D21" t="s">
         <v>7</v>
       </c>
+      <c r="E21" t="s">
+        <v>298</v>
+      </c>
       <c r="F21" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>334</v>
       </c>
@@ -15533,11 +19740,14 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
       <c r="F22" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>337</v>
       </c>
@@ -15557,7 +19767,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>340</v>
       </c>
@@ -15570,11 +19780,14 @@
       <c r="D24" t="s">
         <v>8</v>
       </c>
+      <c r="E24" t="s">
+        <v>298</v>
+      </c>
       <c r="F24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>343</v>
       </c>
@@ -15587,11 +19800,14 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
+      <c r="E25" t="s">
+        <v>298</v>
+      </c>
       <c r="F25" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>346</v>
       </c>
@@ -15604,11 +19820,14 @@
       <c r="D26" t="s">
         <v>9</v>
       </c>
+      <c r="E26" t="s">
+        <v>298</v>
+      </c>
       <c r="F26" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>349</v>
       </c>
@@ -15628,7 +19847,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>352</v>
       </c>
@@ -15648,7 +19867,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>354</v>
       </c>
@@ -15668,7 +19887,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>357</v>
       </c>
@@ -15688,7 +19907,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>360</v>
       </c>
@@ -15708,7 +19927,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>497</v>
       </c>
@@ -15725,7 +19944,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>500</v>
       </c>
@@ -15742,7 +19961,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>503</v>
       </c>
@@ -15756,7 +19975,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>505</v>
       </c>
@@ -15770,7 +19989,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>507</v>
       </c>
@@ -15787,7 +20006,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>510</v>
       </c>
@@ -15804,7 +20023,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>513</v>
       </c>
@@ -15821,7 +20040,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>516</v>
       </c>
@@ -15838,7 +20057,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>519</v>
       </c>
@@ -15855,7 +20074,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>420</v>
       </c>
@@ -15872,7 +20091,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>524</v>
       </c>
@@ -15889,7 +20108,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>524</v>
       </c>
@@ -15906,7 +20125,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>420</v>
       </c>
@@ -15923,7 +20142,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>420</v>
       </c>
@@ -15940,7 +20159,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>532</v>
       </c>
@@ -15957,7 +20176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>535</v>
       </c>
@@ -15974,7 +20193,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>537</v>
       </c>
@@ -15991,7 +20210,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>540</v>
       </c>
@@ -16005,7 +20224,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="21.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>541</v>
       </c>
